--- a/Shipping Excel Sheet.xlsx
+++ b/Shipping Excel Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmattison\Desktop\ecopax-shipping-updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00393AF7-1693-4B1A-976B-F138EE1E83BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142E5AD0-A25D-44E6-B77E-4D09DDADA929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="1280" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="1280" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly needs" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Rest!$B$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="207">
   <si>
     <t>Part Number</t>
   </si>
@@ -307,6 +306,9 @@
     <t>OOLU9794280</t>
   </si>
   <si>
+    <t>CSNU6261402</t>
+  </si>
+  <si>
     <t>2022-00-30493</t>
   </si>
   <si>
@@ -628,9 +630,6 @@
     <t>2022-00-33519</t>
   </si>
   <si>
-    <t>CSNU6261402</t>
-  </si>
-  <si>
     <t>2022-00-33520</t>
   </si>
   <si>
@@ -656,6 +655,9 @@
   </si>
   <si>
     <t>CAIU7487211</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -1764,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,6 +2331,20 @@
         <v>88</v>
       </c>
       <c r="G33" s="32">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="32">
         <v>44734</v>
       </c>
     </row>
@@ -2354,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="D46" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,7 +2398,7 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -2397,7 +2413,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H2" s="32">
         <v>44710</v>
@@ -2451,7 +2467,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -2466,7 +2482,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" s="32">
         <v>44704</v>
@@ -2474,7 +2490,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -2489,7 +2505,7 @@
         <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H6" s="32">
         <v>44729</v>
@@ -2520,7 +2536,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -2535,7 +2551,7 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
@@ -2543,7 +2559,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -2558,7 +2574,7 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
@@ -2566,7 +2582,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -2581,7 +2597,7 @@
         <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H10" t="s">
         <v>32</v>
@@ -2589,7 +2605,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -2604,7 +2620,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H11" t="s">
         <v>32</v>
@@ -2612,7 +2628,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -2627,7 +2643,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
         <v>32</v>
@@ -2658,7 +2674,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -2673,7 +2689,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
@@ -2681,7 +2697,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -2694,12 +2710,12 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -2714,7 +2730,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H16" s="32">
         <v>44710</v>
@@ -2722,7 +2738,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -2737,7 +2753,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H17" s="32">
         <v>44710</v>
@@ -2745,7 +2761,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2760,7 +2776,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H18" s="32">
         <v>44716</v>
@@ -2768,7 +2784,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2783,7 +2799,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H19" s="32">
         <v>44716</v>
@@ -2791,7 +2807,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2806,7 +2822,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="32">
         <v>44716</v>
@@ -2814,7 +2830,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2829,7 +2845,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H21" s="32">
         <v>44716</v>
@@ -2837,7 +2853,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2852,7 +2868,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H22" s="32">
         <v>44722</v>
@@ -2860,7 +2876,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2875,7 +2891,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H23" s="32">
         <v>44704</v>
@@ -2883,7 +2899,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2898,7 +2914,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H24" s="32">
         <v>44710</v>
@@ -2906,7 +2922,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2921,7 +2937,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H25" s="32">
         <v>44710</v>
@@ -2929,7 +2945,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -2944,19 +2960,18 @@
         <v>50</v>
       </c>
       <c r="G26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H26"/>
+        <v>131</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
         <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E27" s="33">
         <v>1054.46</v>
@@ -2965,7 +2980,7 @@
         <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H27" s="32">
         <v>44674</v>
@@ -2973,13 +2988,13 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E28" s="33">
         <v>1015.39705</v>
@@ -2988,7 +3003,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H28" s="32">
         <v>44684</v>
@@ -2996,13 +3011,13 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
         <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E29" s="33">
         <v>977.86785999999995</v>
@@ -3011,7 +3026,7 @@
         <v>75</v>
       </c>
       <c r="G29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H29" s="32">
         <v>44687</v>
@@ -3019,13 +3034,13 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E30" s="33">
         <v>977.86785999999995</v>
@@ -3034,7 +3049,7 @@
         <v>75</v>
       </c>
       <c r="G30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H30" s="32">
         <v>44688</v>
@@ -3042,13 +3057,13 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E31" s="33">
         <v>985.34493999999995</v>
@@ -3057,7 +3072,7 @@
         <v>75</v>
       </c>
       <c r="G31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H31" s="32">
         <v>44697</v>
@@ -3065,13 +3080,13 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
         <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E32" s="33">
         <v>1049.4273499999999</v>
@@ -3080,7 +3095,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H32" s="32">
         <v>44697</v>
@@ -3088,13 +3103,13 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E33" s="33">
         <v>1012.85676</v>
@@ -3103,7 +3118,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H33" s="32">
         <v>44705</v>
@@ -3111,13 +3126,13 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E34" s="33">
         <v>1019.32731</v>
@@ -3126,7 +3141,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H34" s="32">
         <v>44726</v>
@@ -3134,13 +3149,13 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E35" s="33">
         <v>1036.1028100000001</v>
@@ -3149,7 +3164,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H35" s="32">
         <v>44730</v>
@@ -3157,13 +3172,13 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E36" s="33">
         <v>930.99231999999995</v>
@@ -3172,64 +3187,64 @@
         <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C37" t="s">
         <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F39" t="s">
         <v>75</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H39" s="32">
         <v>44730</v>
@@ -3237,19 +3252,19 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F40" t="s">
         <v>75</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H40" s="32">
         <v>44730</v>
@@ -3257,19 +3272,19 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F41" t="s">
         <v>75</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H41" s="32">
         <v>44730</v>
@@ -3277,19 +3292,19 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
         <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F42" t="s">
         <v>75</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H42" s="32">
         <v>44730</v>
@@ -3297,19 +3312,19 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C43" t="s">
         <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F43" t="s">
         <v>75</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H43" s="32">
         <v>44730</v>
@@ -3329,7 +3344,7 @@
         <v>75</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H44" s="32">
         <v>44730</v>
@@ -3337,19 +3352,19 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C45" t="s">
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F45" t="s">
         <v>75</v>
       </c>
       <c r="G45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H45" s="32">
         <v>44731</v>
@@ -3357,19 +3372,19 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F46" t="s">
         <v>75</v>
       </c>
       <c r="G46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H46" s="32">
         <v>44731</v>
@@ -3377,19 +3392,19 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F47" t="s">
         <v>75</v>
       </c>
       <c r="G47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H47" s="32">
         <v>44731</v>
@@ -3397,19 +3412,19 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C48" t="s">
         <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F48" t="s">
         <v>75</v>
       </c>
       <c r="G48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H48" s="32">
         <v>44734</v>
@@ -3417,56 +3432,56 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C49" t="s">
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F49" t="s">
         <v>50</v>
       </c>
       <c r="G49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C50" t="s">
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F50" t="s">
         <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H50" s="32">
-        <v>44736</v>
+        <v>44734</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s">
         <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F51" t="s">
         <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H51" s="32">
         <v>44730</v>
@@ -3474,19 +3489,19 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C52" t="s">
         <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F52" t="s">
         <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H52" s="32">
         <v>44733</v>
@@ -3494,19 +3509,19 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C53" t="s">
         <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F53" t="s">
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H53" s="32">
         <v>44730</v>
@@ -3514,22 +3529,22 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C54" t="s">
         <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F54" t="s">
         <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="H54" s="32">
-        <v>44736</v>
+        <v>44734</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -3540,7 +3555,7 @@
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F55" t="s">
         <v>30</v>
@@ -3549,7 +3564,7 @@
         <v>198</v>
       </c>
       <c r="H55" s="32">
-        <v>44736</v>
+        <v>44734</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -3560,7 +3575,7 @@
         <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F56" t="s">
         <v>39</v>
@@ -3580,7 +3595,7 @@
         <v>48</v>
       </c>
       <c r="D57" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F57" t="s">
         <v>39</v>

--- a/Shipping Excel Sheet.xlsx
+++ b/Shipping Excel Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmattison\Desktop\ecopax-shipping-updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00393AF7-1693-4B1A-976B-F138EE1E83BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E216ABE0-7DAB-4029-A91C-64BD31297568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="1280" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Rest!$B$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="206">
   <si>
     <t>Part Number</t>
   </si>
@@ -1766,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2354,8 +2353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="D24" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3205,9 +3204,7 @@
       <c r="D38" t="s">
         <v>156</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="F38" s="4"/>
       <c r="G38" s="27" t="s">
         <v>157</v>
       </c>

--- a/Shipping Excel Sheet.xlsx
+++ b/Shipping Excel Sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="19090" yWindow="1280" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly needs" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -86,11 +86,6 @@
       <sz val="9"/>
     </font>
     <font>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <sz val="11"/>
-    </font>
-    <font>
       <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
@@ -135,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -164,6 +159,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1EB9C"/>
+        <bgColor rgb="00F1EB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF7F7F"/>
+        <bgColor rgb="00FF7F7F"/>
       </patternFill>
     </fill>
     <fill>
@@ -258,25 +265,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -285,9 +282,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -296,10 +290,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -333,13 +323,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -353,8 +336,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -368,7 +351,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -380,58 +366,68 @@
     <xf numFmtId="2" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -872,40 +868,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="18.5703125" bestFit="1" customWidth="1" style="44" min="2" max="2"/>
-    <col width="15.140625" bestFit="1" customWidth="1" style="44" min="3" max="4"/>
-    <col width="10.85546875" customWidth="1" style="44" min="5" max="5"/>
-    <col width="19.28515625" customWidth="1" style="44" min="6" max="6"/>
+    <col width="18.5703125" bestFit="1" customWidth="1" style="30" min="2" max="2"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="30" min="3" max="4"/>
+    <col width="10.85546875" customWidth="1" style="30" min="5" max="5"/>
+    <col width="19.28515625" customWidth="1" style="30" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="44" thickBot="1"/>
-    <row r="2" ht="15.75" customHeight="1" s="44" thickBot="1">
-      <c r="B2" s="27" t="inlineStr">
+    <row r="1" ht="15.75" customHeight="1" s="30" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="30" thickBot="1">
+      <c r="B2" s="16" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="C2" s="28" t="inlineStr">
+      <c r="C2" s="17" t="inlineStr">
         <is>
           <t>Monthly Usage</t>
         </is>
       </c>
-      <c r="D2" s="50" t="inlineStr">
+      <c r="D2" s="36" t="inlineStr">
         <is>
           <t>Convert to Ton</t>
         </is>
       </c>
-      <c r="E2" s="52" t="inlineStr">
+      <c r="E2" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">containers </t>
         </is>
       </c>
-      <c r="F2" s="67" t="inlineStr">
+      <c r="F2" s="53" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="G2" s="47" t="inlineStr">
+      <c r="G2" s="33" t="inlineStr">
         <is>
           <t>Wkly</t>
         </is>
@@ -931,366 +927,366 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="44" thickBot="1">
-      <c r="B3" s="27" t="inlineStr">
+    <row r="3" ht="15.75" customHeight="1" s="30" thickBot="1">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>PPEY Blank-PSC07</t>
         </is>
       </c>
-      <c r="C3" s="29" t="n">
+      <c r="C3" s="18" t="n">
         <v>16279680</v>
       </c>
-      <c r="D3" s="50" t="n">
+      <c r="D3" s="36" t="n">
         <v>74</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="42">
         <f>D3/23</f>
         <v/>
       </c>
-      <c r="F3" s="62" t="inlineStr">
+      <c r="F3" s="48" t="inlineStr">
         <is>
           <t>Every week</t>
         </is>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="41">
         <f>E3/4</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="44" thickBot="1">
-      <c r="B4" s="30" t="inlineStr">
+    <row r="4" ht="15.75" customHeight="1" s="30" thickBot="1">
+      <c r="B4" s="19" t="inlineStr">
         <is>
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="C4" s="31" t="n">
+      <c r="C4" s="20" t="n">
         <v>9712800</v>
       </c>
-      <c r="D4" s="51" t="n">
+      <c r="D4" s="37" t="n">
         <v>63</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="43">
         <f>D4/23</f>
         <v/>
       </c>
-      <c r="F4" s="63" t="inlineStr">
+      <c r="F4" s="49" t="inlineStr">
         <is>
           <t xml:space="preserve">Three weeks </t>
         </is>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="40">
         <f>E4/4</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="44" thickBot="1">
-      <c r="B5" s="30" t="inlineStr">
+    <row r="5" ht="15.75" customHeight="1" s="30" thickBot="1">
+      <c r="B5" s="19" t="inlineStr">
         <is>
           <t>PPEY Blank-PSC16</t>
         </is>
       </c>
-      <c r="C5" s="31" t="n">
+      <c r="C5" s="20" t="n">
         <v>6000000</v>
       </c>
-      <c r="D5" s="51" t="n">
+      <c r="D5" s="37" t="n">
         <v>60</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="45">
         <f>D5/23</f>
         <v/>
       </c>
-      <c r="F5" s="64" t="inlineStr">
+      <c r="F5" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">Three weeks </t>
         </is>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="40">
         <f>E5/4</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="44" thickBot="1">
-      <c r="B6" s="30" t="inlineStr">
+    <row r="6" ht="15.75" customHeight="1" s="30" thickBot="1">
+      <c r="B6" s="19" t="inlineStr">
         <is>
           <t>Blank-PSC12</t>
         </is>
       </c>
-      <c r="C6" s="31" t="n">
+      <c r="C6" s="20" t="n">
         <v>3251000</v>
       </c>
-      <c r="D6" s="51" t="n">
+      <c r="D6" s="37" t="n">
         <v>23</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="44">
         <f>D6/23</f>
         <v/>
       </c>
-      <c r="F6" s="65" t="inlineStr">
+      <c r="F6" s="51" t="inlineStr">
         <is>
           <t>Once</t>
         </is>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="40">
         <f>E6/4</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="44" thickBot="1">
-      <c r="B7" s="30" t="inlineStr">
+    <row r="7" ht="15.75" customHeight="1" s="30" thickBot="1">
+      <c r="B7" s="19" t="inlineStr">
         <is>
           <t>Blank-PSC07</t>
         </is>
       </c>
-      <c r="C7" s="31" t="n">
+      <c r="C7" s="20" t="n">
         <v>3962000</v>
       </c>
-      <c r="D7" s="51" t="n">
+      <c r="D7" s="37" t="n">
         <v>18</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="42">
         <f>D7/23</f>
         <v/>
       </c>
-      <c r="F7" s="62" t="inlineStr">
+      <c r="F7" s="48" t="inlineStr">
         <is>
           <t>one</t>
         </is>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="41">
         <f>E7/4</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="44" thickBot="1">
-      <c r="B8" s="30" t="inlineStr">
+    <row r="8" ht="15.75" customHeight="1" s="30" thickBot="1">
+      <c r="B8" s="19" t="inlineStr">
         <is>
           <t>ABEE Blank-PSC08</t>
         </is>
       </c>
-      <c r="C8" s="31" t="n">
+      <c r="C8" s="20" t="n">
         <v>2640000</v>
       </c>
-      <c r="D8" s="51" t="n">
+      <c r="D8" s="37" t="n">
         <v>17</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="45">
         <f>D8/23</f>
         <v/>
       </c>
-      <c r="F8" s="64" t="inlineStr">
+      <c r="F8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">one </t>
         </is>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="40">
         <f>E8/4</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="44" thickBot="1">
-      <c r="B9" s="30" t="inlineStr">
+    <row r="9" ht="15.75" customHeight="1" s="30" thickBot="1">
+      <c r="B9" s="19" t="inlineStr">
         <is>
           <t>Blank-PSC16</t>
         </is>
       </c>
-      <c r="C9" s="31" t="n">
+      <c r="C9" s="20" t="n">
         <v>627500</v>
       </c>
-      <c r="D9" s="51" t="n">
+      <c r="D9" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="43">
         <f>D9/23</f>
         <v/>
       </c>
-      <c r="F9" s="63" t="inlineStr">
+      <c r="F9" s="49" t="inlineStr">
         <is>
           <t xml:space="preserve">one </t>
         </is>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="40">
         <f>E9/4</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="44" thickBot="1">
-      <c r="B10" s="30" t="inlineStr">
+    <row r="10" ht="15.75" customHeight="1" s="30" thickBot="1">
+      <c r="B10" s="19" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C10" s="31" t="n">
+      <c r="C10" s="20" t="n">
         <v>42472980</v>
       </c>
-      <c r="D10" s="51" t="n">
+      <c r="D10" s="37" t="n">
         <v>261</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="39">
         <f>D10/23</f>
         <v/>
       </c>
-      <c r="F10" s="66" t="n"/>
-      <c r="G10" s="47" t="n"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="44" thickBot="1"/>
-    <row r="12" ht="72" customHeight="1" s="44" thickBot="1">
-      <c r="B12" s="32" t="inlineStr">
+      <c r="F10" s="52" t="n"/>
+      <c r="G10" s="33" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="30" thickBot="1"/>
+    <row r="12" ht="72" customHeight="1" s="30" thickBot="1">
+      <c r="B12" s="21" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="C12" s="33" t="inlineStr">
+      <c r="C12" s="22" t="inlineStr">
         <is>
           <t>Monthly Usage</t>
         </is>
       </c>
-      <c r="D12" s="33" t="inlineStr">
+      <c r="D12" s="22" t="inlineStr">
         <is>
           <t>Open order qty</t>
         </is>
       </c>
-      <c r="E12" s="34" t="inlineStr">
+      <c r="E12" s="23" t="inlineStr">
         <is>
           <t xml:space="preserve"> open orders can cover how many months </t>
         </is>
       </c>
-      <c r="F12" s="60" t="n"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="44" thickBot="1">
-      <c r="B13" s="35" t="inlineStr">
+      <c r="F12" s="46" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="30" thickBot="1">
+      <c r="B13" s="24" t="inlineStr">
         <is>
           <t>Blank-PSC16</t>
         </is>
       </c>
-      <c r="C13" s="36" t="n">
+      <c r="C13" s="25" t="n">
         <v>627500</v>
       </c>
-      <c r="D13" s="36" t="n">
+      <c r="D13" s="25" t="n">
         <v>10989011</v>
       </c>
-      <c r="E13" s="37" t="n">
+      <c r="E13" s="26" t="n">
         <v>18</v>
       </c>
-      <c r="F13" s="61" t="n"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" s="44" thickBot="1">
-      <c r="B14" s="35" t="inlineStr">
+      <c r="F13" s="47" t="n"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" s="30" thickBot="1">
+      <c r="B14" s="24" t="inlineStr">
         <is>
           <t>Blank-PSC12</t>
         </is>
       </c>
-      <c r="C14" s="36" t="n">
+      <c r="C14" s="25" t="n">
         <v>3251000</v>
       </c>
-      <c r="D14" s="36" t="n">
+      <c r="D14" s="25" t="n">
         <v>22188603</v>
       </c>
-      <c r="E14" s="37" t="n">
+      <c r="E14" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="F14" s="61" t="n"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" s="44" thickBot="1">
-      <c r="B15" s="35" t="inlineStr">
+      <c r="F14" s="47" t="n"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" s="30" thickBot="1">
+      <c r="B15" s="24" t="inlineStr">
         <is>
           <t>PPEY Blank-PSC16</t>
         </is>
       </c>
-      <c r="C15" s="36" t="n">
+      <c r="C15" s="25" t="n">
         <v>6000000</v>
       </c>
-      <c r="D15" s="36" t="n">
+      <c r="D15" s="25" t="n">
         <v>30769231</v>
       </c>
-      <c r="E15" s="37" t="n">
+      <c r="E15" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="F15" s="61" t="n"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1" s="44" thickBot="1">
-      <c r="B16" s="35" t="inlineStr">
+      <c r="F15" s="47" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" s="30" thickBot="1">
+      <c r="B16" s="24" t="inlineStr">
         <is>
           <t>ABEE Blank-PSC08</t>
         </is>
       </c>
-      <c r="C16" s="36" t="n">
+      <c r="C16" s="25" t="n">
         <v>2640000</v>
       </c>
-      <c r="D16" s="36" t="n">
+      <c r="D16" s="25" t="n">
         <v>10216718</v>
       </c>
-      <c r="E16" s="37" t="n">
+      <c r="E16" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="F16" s="61" t="n"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" s="44" thickBot="1">
-      <c r="B17" s="35" t="inlineStr">
+      <c r="F16" s="47" t="n"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="30" thickBot="1">
+      <c r="B17" s="24" t="inlineStr">
         <is>
           <t>PPEY Blank-PSC07</t>
         </is>
       </c>
-      <c r="C17" s="36" t="n">
+      <c r="C17" s="25" t="n">
         <v>16279680</v>
       </c>
-      <c r="D17" s="36" t="n">
+      <c r="D17" s="25" t="n">
         <v>43516484</v>
       </c>
-      <c r="E17" s="37" t="n">
+      <c r="E17" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="F17" s="61" t="n"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" s="44" thickBot="1">
-      <c r="B18" s="35" t="inlineStr">
+      <c r="F17" s="47" t="n"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="30" thickBot="1">
+      <c r="B18" s="24" t="inlineStr">
         <is>
           <t>Blank-PSC07</t>
         </is>
       </c>
-      <c r="C18" s="36" t="n">
+      <c r="C18" s="25" t="n">
         <v>3962000</v>
       </c>
-      <c r="D18" s="36" t="n">
+      <c r="D18" s="25" t="n">
         <v>9670330</v>
       </c>
-      <c r="E18" s="37" t="n">
+      <c r="E18" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="F18" s="61" t="n"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1" s="44" thickBot="1">
-      <c r="B19" s="35" t="inlineStr">
+      <c r="F18" s="47" t="n"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="30" thickBot="1">
+      <c r="B19" s="24" t="inlineStr">
         <is>
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="C19" s="36" t="n">
+      <c r="C19" s="25" t="n">
         <v>9712800</v>
       </c>
-      <c r="D19" s="36" t="n">
+      <c r="D19" s="25" t="n">
         <v>17027864</v>
       </c>
-      <c r="E19" s="37" t="n">
+      <c r="E19" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="F19" s="61" t="n"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1" s="44" thickBot="1">
-      <c r="B20" s="35" t="inlineStr">
+      <c r="F19" s="47" t="n"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="30" thickBot="1">
+      <c r="B20" s="24" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C20" s="36" t="n">
+      <c r="C20" s="25" t="n">
         <v>42472980</v>
       </c>
-      <c r="D20" s="36" t="n">
+      <c r="D20" s="25" t="n">
         <v>144378240</v>
       </c>
-      <c r="E20" s="37" t="n">
+      <c r="E20" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="F20" s="61" t="n"/>
+      <c r="F20" s="47" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1303,29 +1299,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="G38" sqref="G2:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="16" bestFit="1" customWidth="1" style="44" min="2" max="2"/>
-    <col width="38.42578125" bestFit="1" customWidth="1" style="44" min="3" max="3"/>
-    <col width="49.85546875" customWidth="1" style="47" min="4" max="4"/>
-    <col width="14.7109375" customWidth="1" style="71" min="5" max="5"/>
-    <col width="17.7109375" bestFit="1" customWidth="1" style="44" min="6" max="6"/>
-    <col width="19.5703125" customWidth="1" style="44" min="7" max="7"/>
-    <col width="17.28515625" customWidth="1" style="44" min="8" max="8"/>
-    <col width="15.85546875" customWidth="1" style="44" min="9" max="9"/>
-    <col width="15.7109375" bestFit="1" customWidth="1" style="44" min="10" max="11"/>
-    <col width="17.28515625" customWidth="1" style="44" min="12" max="17"/>
+    <col width="16" bestFit="1" customWidth="1" style="30" min="2" max="2"/>
+    <col width="38.42578125" bestFit="1" customWidth="1" style="30" min="3" max="3"/>
+    <col width="49.85546875" customWidth="1" style="33" min="4" max="4"/>
+    <col width="14.7109375" customWidth="1" style="56" min="5" max="5"/>
+    <col width="17.7109375" bestFit="1" customWidth="1" style="30" min="6" max="6"/>
+    <col width="19.5703125" customWidth="1" style="30" min="7" max="7"/>
+    <col width="17.28515625" customWidth="1" style="30" min="8" max="8"/>
+    <col width="15.85546875" customWidth="1" style="30" min="9" max="9"/>
+    <col width="15.7109375" bestFit="1" customWidth="1" style="30" min="10" max="11"/>
+    <col width="17.28515625" customWidth="1" style="30" min="12" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="47" t="n"/>
-      <c r="E1" s="71" t="inlineStr">
+      <c r="E1" s="56" t="inlineStr">
         <is>
           <t>Carrier</t>
         </is>
@@ -1342,264 +1337,249 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="48" t="inlineStr">
+      <c r="B2" s="34" t="inlineStr">
         <is>
           <t>PPEY Blank-PSC07</t>
         </is>
       </c>
-      <c r="D2" s="47" t="n"/>
-      <c r="E2" s="71" t="n"/>
-      <c r="I2" s="3" t="n"/>
+      <c r="H2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>2022-00-30492</t>
         </is>
       </c>
-      <c r="C3" s="14" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="8" t="n">
         <v>4740799</v>
       </c>
-      <c r="E3" s="69" t="inlineStr">
+      <c r="E3" s="54" t="inlineStr">
         <is>
           <t>Cosco</t>
         </is>
       </c>
-      <c r="F3" s="14" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>SEGU5093860</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="64" t="inlineStr">
         <is>
           <t>arrived</t>
         </is>
       </c>
-      <c r="H3" s="11" t="n"/>
-      <c r="I3" s="11" t="n"/>
-      <c r="J3" s="15" t="n"/>
-      <c r="K3" s="11" t="n"/>
-      <c r="L3" s="11" t="n"/>
-      <c r="M3" s="14" t="n"/>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="5" t="n"/>
+      <c r="J3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="n"/>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>2022-00-31379</t>
         </is>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="8" t="n">
         <v>3311203</v>
       </c>
-      <c r="E4" s="69" t="inlineStr">
+      <c r="E4" s="54" t="inlineStr">
         <is>
           <t>ONE</t>
         </is>
       </c>
-      <c r="F4" s="14" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>TCNU7076512</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="64" t="inlineStr">
         <is>
           <t>arrived</t>
         </is>
       </c>
-      <c r="H4" s="11" t="n"/>
-      <c r="I4" s="11" t="n"/>
-      <c r="J4" s="15" t="n"/>
-      <c r="K4" s="11" t="n"/>
-      <c r="L4" s="11" t="n"/>
-      <c r="M4" s="14" t="n"/>
+      <c r="H4" s="5" t="n"/>
+      <c r="I4" s="5" t="n"/>
+      <c r="J4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="n"/>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>2021-00-25015</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="8" t="n">
         <v>2634380</v>
       </c>
-      <c r="E5" s="69" t="inlineStr">
+      <c r="E5" s="54" t="inlineStr">
         <is>
           <t>ONE</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>TCLU1790145</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="64" t="inlineStr">
         <is>
           <t>arrived</t>
         </is>
       </c>
-      <c r="H5" s="11" t="n"/>
-      <c r="I5" s="11" t="n"/>
-      <c r="J5" s="15" t="n"/>
-      <c r="K5" s="11" t="n"/>
-      <c r="L5" s="11" t="n"/>
-      <c r="M5" s="14" t="n"/>
+      <c r="H5" s="5" t="n"/>
+      <c r="I5" s="5" t="n"/>
+      <c r="J5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n"/>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>2022-00-31392</t>
         </is>
       </c>
-      <c r="C6" s="14" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="8" t="n">
         <v>4793964</v>
       </c>
-      <c r="E6" s="70" t="inlineStr">
+      <c r="E6" s="55" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="F6" s="25" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>EGHU9449660</t>
         </is>
       </c>
-      <c r="G6" s="15" t="n">
-        <v>44704</v>
-      </c>
-      <c r="H6" s="11" t="n"/>
-      <c r="I6" s="11" t="n"/>
-      <c r="J6" s="15" t="n"/>
-      <c r="K6" s="11" t="n"/>
-      <c r="L6" s="11" t="n"/>
-      <c r="M6" s="14" t="n"/>
+      <c r="G6" s="65" t="inlineStr">
+        <is>
+          <t>Date Error</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="n"/>
+      <c r="I6" s="5" t="n"/>
+      <c r="J6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n"/>
-      <c r="B7" s="14" t="inlineStr">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>2022-00-31393</t>
         </is>
       </c>
-      <c r="C7" s="14" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D7" s="16" t="n">
+      <c r="D7" s="8" t="n">
         <v>4777689</v>
       </c>
-      <c r="E7" s="70" t="inlineStr">
+      <c r="E7" s="55" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="F7" s="25" t="inlineStr">
+      <c r="F7" s="14" t="inlineStr">
         <is>
           <t>EGHU8329891</t>
         </is>
       </c>
-      <c r="G7" s="15" t="n">
-        <v>44710</v>
-      </c>
-      <c r="H7" s="11" t="n"/>
-      <c r="I7" s="11" t="n"/>
-      <c r="J7" s="15" t="n"/>
-      <c r="K7" s="11" t="n"/>
-      <c r="L7" s="11" t="n"/>
-      <c r="M7" s="14" t="n"/>
+      <c r="G7" s="66" t="inlineStr">
+        <is>
+          <t>06/08/2022</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="n"/>
+      <c r="I7" s="5" t="n"/>
+      <c r="J7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>2022-00-31391</t>
         </is>
       </c>
-      <c r="C8" s="14" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="D8" s="8" t="n">
         <v>4783765</v>
       </c>
-      <c r="E8" s="70" t="inlineStr">
+      <c r="E8" s="55" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="F8" s="14" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>EGHU9229006</t>
         </is>
       </c>
-      <c r="G8" s="15" t="n">
-        <v>44722</v>
-      </c>
-      <c r="H8" s="11" t="n"/>
-      <c r="I8" s="11" t="n"/>
-      <c r="J8" s="15" t="n"/>
-      <c r="K8" s="11" t="n"/>
-      <c r="L8" s="11" t="n"/>
-      <c r="M8" s="14" t="n"/>
-    </row>
-    <row r="9" ht="17.25" customHeight="1" s="44">
-      <c r="A9" s="6" t="n"/>
-      <c r="B9" s="14" t="inlineStr">
+      <c r="G8" s="66" t="inlineStr">
+        <is>
+          <t>06/23/2022</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="n"/>
+      <c r="I8" s="5" t="n"/>
+      <c r="J8" s="6" t="n"/>
+    </row>
+    <row r="9" ht="17.25" customHeight="1" s="30">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>2022-00-31399</t>
         </is>
       </c>
-      <c r="C9" s="14" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D9" s="16" t="n">
+      <c r="D9" s="8" t="n">
         <v>237398</v>
       </c>
-      <c r="E9" s="70" t="inlineStr">
+      <c r="E9" s="55" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="F9" s="14" t="inlineStr">
+      <c r="F9" s="6" t="inlineStr">
         <is>
           <t>TCKU6099376</t>
         </is>
       </c>
-      <c r="G9" s="45" t="n">
-        <v>44733</v>
-      </c>
-      <c r="H9" s="11" t="n"/>
-      <c r="I9" s="11" t="n"/>
-      <c r="J9" s="15" t="n"/>
-      <c r="K9" s="11" t="n"/>
-      <c r="L9" s="11" t="n"/>
-      <c r="M9" s="14" t="n"/>
+      <c r="G9" s="66" t="inlineStr">
+        <is>
+          <t>06/26/2022</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="n"/>
+      <c r="I9" s="5" t="n"/>
+      <c r="J9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
@@ -1612,12 +1592,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D10" s="26" t="inlineStr">
+      <c r="D10" s="15" t="inlineStr">
         <is>
           <t>Apr Run7 oz. blanks 2 color print (Popeyes)14 point (caliper), basic weight 154, 2PE, 12 + 250 + 18</t>
         </is>
       </c>
-      <c r="E10" s="71" t="inlineStr">
+      <c r="E10" s="56" t="inlineStr">
         <is>
           <t>?</t>
         </is>
@@ -1627,6 +1607,7 @@
           <t>TRHU5800200</t>
         </is>
       </c>
+      <c r="G10" s="63" t="n"/>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
@@ -1639,12 +1620,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D11" s="26" t="inlineStr">
+      <c r="D11" s="15" t="inlineStr">
         <is>
           <t>Apr Run7 oz. blanks 2 color print (Popeyes) 14 point (caliper), basic weight 154, 2PE, 12 + 250 + 18$1793/MT FOB</t>
         </is>
       </c>
-      <c r="E11" s="71" t="inlineStr">
+      <c r="E11" s="56" t="inlineStr">
         <is>
           <t>?</t>
         </is>
@@ -1654,6 +1635,7 @@
           <t>TRHU4823752</t>
         </is>
       </c>
+      <c r="G11" s="63" t="n"/>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
@@ -1666,12 +1648,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D12" s="26" t="inlineStr">
+      <c r="D12" s="15" t="inlineStr">
         <is>
           <t>Apr Run7 oz. blanks 2 color print (Popeyes)14 point (caliper), basic weight 154, 2PE, 12 + 250 + 18</t>
         </is>
       </c>
-      <c r="E12" s="71" t="inlineStr">
+      <c r="E12" s="56" t="inlineStr">
         <is>
           <t>?</t>
         </is>
@@ -1681,126 +1663,125 @@
           <t>TGBU4119082</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="G13" s="45" t="n"/>
+      <c r="G12" s="63" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
-      <c r="I14" s="9" t="n"/>
-      <c r="J14" s="9" t="n"/>
-      <c r="O14" s="45" t="n"/>
-      <c r="S14" s="9" t="n"/>
+      <c r="A14" s="2" t="n"/>
+      <c r="G14" s="4" t="n"/>
+      <c r="L14" s="31" t="n"/>
+      <c r="P14" s="4" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="48" t="inlineStr">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="34" t="inlineStr">
         <is>
           <t>PPEY Blank-PSC16</t>
         </is>
       </c>
-      <c r="C15" s="6" t="n"/>
-      <c r="D15" s="17" t="n"/>
-      <c r="E15" s="72" t="n"/>
-      <c r="F15" s="8" t="n"/>
-      <c r="G15" s="6" t="n"/>
-      <c r="I15" s="9" t="n"/>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="9" t="n"/>
-      <c r="O15" s="45" t="n"/>
-      <c r="S15" s="9" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="9" t="n"/>
+      <c r="E15" s="57" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="4" t="n"/>
+      <c r="H15" s="4" t="n"/>
+      <c r="L15" s="31" t="n"/>
+      <c r="P15" s="4" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
-      <c r="B16" s="20" t="inlineStr">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="11" t="inlineStr">
         <is>
           <t>2022-00-31383</t>
         </is>
       </c>
-      <c r="C16" s="14" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D16" s="19" t="n">
+      <c r="D16" s="10" t="n">
         <v>2227890</v>
       </c>
-      <c r="E16" s="70" t="inlineStr">
+      <c r="E16" s="55" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="F16" s="20" t="inlineStr">
+      <c r="F16" s="11" t="inlineStr">
         <is>
           <t>TCNU3811162</t>
         </is>
       </c>
-      <c r="G16" s="8" t="n">
-        <v>44716</v>
-      </c>
-      <c r="O16" s="45" t="n"/>
-      <c r="S16" s="9" t="n"/>
+      <c r="G16" s="61" t="inlineStr">
+        <is>
+          <t>06/18/2022</t>
+        </is>
+      </c>
+      <c r="L16" s="31" t="n"/>
+      <c r="P16" s="4" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="20" t="inlineStr">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="11" t="inlineStr">
         <is>
           <t>2021-00-27917</t>
         </is>
       </c>
-      <c r="C17" s="14" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D17" s="19" t="n">
+      <c r="D17" s="10" t="n">
         <v>2224950</v>
       </c>
-      <c r="E17" s="70" t="inlineStr">
+      <c r="E17" s="55" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="F17" s="20" t="inlineStr">
+      <c r="F17" s="11" t="inlineStr">
         <is>
           <t>TCNU6796800</t>
         </is>
       </c>
-      <c r="G17" s="8" t="n">
-        <v>44716</v>
+      <c r="G17" s="61" t="inlineStr">
+        <is>
+          <t>06/18/2022</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="23" t="n"/>
-      <c r="C18" s="23" t="n"/>
-      <c r="D18" s="24" t="n"/>
-      <c r="E18" s="74" t="n"/>
-      <c r="F18" s="23" t="n"/>
+      <c r="B18" s="12" t="n"/>
+      <c r="C18" s="12" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="58" t="n"/>
+      <c r="F18" s="12" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="23" t="n"/>
-      <c r="C19" s="23" t="n"/>
-      <c r="D19" s="24" t="n"/>
-      <c r="E19" s="74" t="n"/>
-      <c r="F19" s="20" t="n"/>
+      <c r="B19" s="12" t="n"/>
+      <c r="C19" s="12" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="58" t="n"/>
+      <c r="F19" s="11" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="23" t="n"/>
-      <c r="C20" s="23" t="n"/>
-      <c r="D20" s="24" t="n"/>
-      <c r="E20" s="74" t="n"/>
-      <c r="F20" s="23" t="n"/>
+      <c r="B20" s="12" t="n"/>
+      <c r="C20" s="12" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="58" t="n"/>
+      <c r="F20" s="12" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="49" t="inlineStr">
+      <c r="B21" s="35" t="inlineStr">
         <is>
           <t>ABEE Blank-PSC08</t>
         </is>
       </c>
-      <c r="C21" s="23" t="n"/>
-      <c r="D21" s="24" t="n"/>
-      <c r="E21" s="74" t="n"/>
-      <c r="F21" s="23" t="n"/>
+      <c r="C21" s="12" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="58" t="n"/>
+      <c r="F21" s="12" t="n"/>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
@@ -1813,10 +1794,10 @@
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="4" t="n">
         <v>3520000</v>
       </c>
-      <c r="E22" s="71" t="inlineStr">
+      <c r="E22" s="56" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
@@ -1826,8 +1807,10 @@
           <t>EITU1589389</t>
         </is>
       </c>
-      <c r="G22" s="45" t="n">
-        <v>44733</v>
+      <c r="G22" s="61" t="inlineStr">
+        <is>
+          <t>06/26/2022</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1841,10 +1824,10 @@
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="4" t="n">
         <v>3462720</v>
       </c>
-      <c r="E23" s="71" t="inlineStr">
+      <c r="E23" s="56" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
@@ -1854,19 +1837,21 @@
           <t>DRYU9855186</t>
         </is>
       </c>
-      <c r="G23" s="45" t="n">
-        <v>44704</v>
+      <c r="G23" s="62" t="inlineStr">
+        <is>
+          <t>Date Error</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="23" t="n"/>
-      <c r="C24" s="23" t="n"/>
-      <c r="D24" s="24" t="n"/>
-      <c r="E24" s="74" t="n"/>
-      <c r="F24" s="23" t="n"/>
+      <c r="B24" s="12" t="n"/>
+      <c r="C24" s="12" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="58" t="n"/>
+      <c r="F24" s="12" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="49" t="inlineStr">
+      <c r="B26" s="35" t="inlineStr">
         <is>
           <t>WDYS</t>
         </is>
@@ -1883,12 +1868,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D27" s="43" t="inlineStr">
+      <c r="D27" s="29" t="inlineStr">
         <is>
           <t>May run cold cups - 3 of 12 containers22 pallets of WDYS Blank-PCC21</t>
         </is>
       </c>
-      <c r="E27" s="71" t="inlineStr">
+      <c r="E27" s="56" t="inlineStr">
         <is>
           <t>HMM</t>
         </is>
@@ -1898,8 +1883,10 @@
           <t>GAOU6156706</t>
         </is>
       </c>
-      <c r="G27" s="45" t="n">
-        <v>44723</v>
+      <c r="G27" s="61" t="inlineStr">
+        <is>
+          <t>06/26/2022</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1913,12 +1900,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D28" s="41" t="inlineStr">
+      <c r="D28" s="27" t="inlineStr">
         <is>
           <t>May run cold cups - 8 of 12 containers22 pallets of WDYS Blank-PCC32</t>
         </is>
       </c>
-      <c r="E28" s="71" t="inlineStr">
+      <c r="E28" s="56" t="inlineStr">
         <is>
           <t>HMM</t>
         </is>
@@ -1928,8 +1915,10 @@
           <t>HMMU6497147</t>
         </is>
       </c>
-      <c r="G28" s="45" t="n">
-        <v>44725</v>
+      <c r="G28" s="61" t="inlineStr">
+        <is>
+          <t>06/20/2022</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1943,12 +1932,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D29" s="41" t="inlineStr">
+      <c r="D29" s="27" t="inlineStr">
         <is>
           <t>May Run cold cups - 10 of 12 containers22 pallets of WDYS Blank-PCC32</t>
         </is>
       </c>
-      <c r="E29" s="71" t="inlineStr">
+      <c r="E29" s="56" t="inlineStr">
         <is>
           <t>OOCL</t>
         </is>
@@ -1958,9 +1947,7 @@
           <t>TCKU7811696</t>
         </is>
       </c>
-      <c r="G29" s="45" t="n">
-        <v>44730</v>
-      </c>
+      <c r="G29" s="63" t="n"/>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
@@ -1973,12 +1960,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D30" s="43" t="inlineStr">
+      <c r="D30" s="29" t="inlineStr">
         <is>
           <t>May run cold cups - 5 of 12 containers22 pallets of WDYS Blank-PCC21</t>
         </is>
       </c>
-      <c r="E30" s="71" t="inlineStr">
+      <c r="E30" s="56" t="inlineStr">
         <is>
           <t>OOCL</t>
         </is>
@@ -1988,9 +1975,7 @@
           <t>TRHU7540925</t>
         </is>
       </c>
-      <c r="G30" s="45" t="n">
-        <v>44732</v>
-      </c>
+      <c r="G30" s="63" t="n"/>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
@@ -2003,12 +1988,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D31" s="42" t="inlineStr">
+      <c r="D31" s="28" t="inlineStr">
         <is>
           <t>May run cold cups - 6 of 12 containers18 pallets of WDYS Blank-PCC212 pallets of WDYS Blank-PCC322 pallets of WDYS Blank-PCC16</t>
         </is>
       </c>
-      <c r="E31" s="71" t="inlineStr">
+      <c r="E31" s="56" t="inlineStr">
         <is>
           <t>OOCL</t>
         </is>
@@ -2018,9 +2003,7 @@
           <t>OOCU7537688</t>
         </is>
       </c>
-      <c r="G31" s="45" t="n">
-        <v>44732</v>
-      </c>
+      <c r="G31" s="63" t="n"/>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
@@ -2033,12 +2016,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D32" s="41" t="inlineStr">
+      <c r="D32" s="27" t="inlineStr">
         <is>
           <t>May run cold cups - 7 of 12 containers22 pallets of WDYS Blank-PCC32</t>
         </is>
       </c>
-      <c r="E32" s="71" t="inlineStr">
+      <c r="E32" s="56" t="inlineStr">
         <is>
           <t>OOCL</t>
         </is>
@@ -2048,9 +2031,7 @@
           <t>CSNU7363040</t>
         </is>
       </c>
-      <c r="G32" s="45" t="n">
-        <v>44732</v>
-      </c>
+      <c r="G32" s="63" t="n"/>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
@@ -2063,12 +2044,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D33" s="41" t="inlineStr">
+      <c r="D33" s="27" t="inlineStr">
         <is>
           <t>May run cold cups - 9 of 12 containers22 pallets of WDYS Blank-PCC32</t>
         </is>
       </c>
-      <c r="E33" s="71" t="inlineStr">
+      <c r="E33" s="56" t="inlineStr">
         <is>
           <t>OOCL</t>
         </is>
@@ -2078,9 +2059,7 @@
           <t>OOLU9794280</t>
         </is>
       </c>
-      <c r="G33" s="45" t="n">
-        <v>44734</v>
-      </c>
+      <c r="G33" s="63" t="n"/>
     </row>
     <row r="34">
       <c r="E34" t="inlineStr">
@@ -2093,9 +2072,9 @@
           <t>HLXU1143116</t>
         </is>
       </c>
-      <c r="G34" s="76" t="inlineStr">
-        <is>
-          <t>06/04/2022</t>
+      <c r="G34" s="67" t="inlineStr">
+        <is>
+          <t>arrived</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2089,7 @@
           <t>HLXU5257457</t>
         </is>
       </c>
-      <c r="G35" s="76" t="inlineStr">
+      <c r="G35" s="67" t="inlineStr">
         <is>
           <t>arrived</t>
         </is>
@@ -2127,7 +2106,7 @@
           <t>MSKU9342870</t>
         </is>
       </c>
-      <c r="G36" s="76" t="inlineStr">
+      <c r="G36" s="67" t="inlineStr">
         <is>
           <t>arrived</t>
         </is>
@@ -2136,12 +2115,17 @@
     <row r="37">
       <c r="E37" t="inlineStr">
         <is>
-          <t>Maersk</t>
+          <t>CMA CGM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MSKU9342870</t>
+          <t>CMAU0459057</t>
+        </is>
+      </c>
+      <c r="G37" s="61" t="inlineStr">
+        <is>
+          <t>06/18/2022</t>
         </is>
       </c>
     </row>
@@ -2153,31 +2137,10 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CMAU0459057</t>
-        </is>
-      </c>
-      <c r="G38" s="76" t="inlineStr">
-        <is>
-          <t>06/18/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>CMA CGM</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>CMAU1999430</t>
         </is>
       </c>
-      <c r="G39" s="76" t="inlineStr">
-        <is>
-          <t>arrived</t>
-        </is>
-      </c>
+      <c r="G38" s="63" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F32 F27">
@@ -2205,19 +2168,19 @@
   </sheetPr>
   <dimension ref="B1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:H37"/>
+    <sheetView tabSelected="1" topLeftCell="D48" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="16.5703125" customWidth="1" style="44" min="2" max="2"/>
-    <col width="38.42578125" bestFit="1" customWidth="1" style="44" min="3" max="3"/>
-    <col width="89.140625" bestFit="1" customWidth="1" style="44" min="4" max="4"/>
-    <col width="13.85546875" bestFit="1" customWidth="1" style="47" min="5" max="5"/>
-    <col width="11.85546875" customWidth="1" style="44" min="6" max="6"/>
-    <col width="18.28515625" customWidth="1" style="44" min="7" max="7"/>
-    <col width="12.28515625" customWidth="1" style="44" min="8" max="8"/>
+    <col width="16.5703125" customWidth="1" style="30" min="2" max="2"/>
+    <col width="38.42578125" bestFit="1" customWidth="1" style="30" min="3" max="3"/>
+    <col width="89.140625" bestFit="1" customWidth="1" style="30" min="4" max="4"/>
+    <col width="13.85546875" bestFit="1" customWidth="1" style="33" min="5" max="5"/>
+    <col width="11.85546875" customWidth="1" style="30" min="6" max="6"/>
+    <col width="18.28515625" customWidth="1" style="60" min="7" max="7"/>
+    <col width="12.28515625" customWidth="1" style="30" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2226,7 +2189,7 @@
           <t>Carrier</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="60" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
@@ -2253,20 +2216,20 @@
           <t>Blank-PSC07</t>
         </is>
       </c>
-      <c r="E2" s="46" t="n">
+      <c r="E2" s="32" t="n">
         <v>4756640</v>
       </c>
-      <c r="F2" s="9" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="60" t="inlineStr">
         <is>
           <t>FCIU9542189</t>
         </is>
       </c>
-      <c r="H2" s="75" t="inlineStr">
+      <c r="H2" s="61" t="inlineStr">
         <is>
           <t>06/08/2022</t>
         </is>
@@ -2288,20 +2251,20 @@
           <t>Blank-PSC07</t>
         </is>
       </c>
-      <c r="E3" s="46" t="n">
+      <c r="E3" s="32" t="n">
         <v>3348527</v>
       </c>
-      <c r="F3" s="9" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="60" t="inlineStr">
         <is>
           <t>TCKU6099376</t>
         </is>
       </c>
-      <c r="H3" s="75" t="inlineStr">
+      <c r="H3" s="61" t="inlineStr">
         <is>
           <t>06/26/2022</t>
         </is>
@@ -2323,22 +2286,22 @@
           <t>Blank-PSC07</t>
         </is>
       </c>
-      <c r="E4" s="46" t="n">
+      <c r="E4" s="32" t="n">
         <v>1402037</v>
       </c>
-      <c r="F4" s="9" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>ONE</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="60" t="inlineStr">
         <is>
           <t>TCNU7076512</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>arrived</t>
+      <c r="H4" s="61" t="inlineStr">
+        <is>
+          <t>05/03/2022</t>
         </is>
       </c>
     </row>
@@ -2358,22 +2321,22 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E5" s="46" t="n">
+      <c r="E5" s="32" t="n">
         <v>3423840</v>
       </c>
-      <c r="F5" s="9" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="60" t="inlineStr">
         <is>
           <t>TCKU6124078</t>
         </is>
       </c>
-      <c r="H5" s="75" t="inlineStr">
-        <is>
-          <t>11/an/ Current Status</t>
+      <c r="H5" s="62" t="inlineStr">
+        <is>
+          <t>Date Error</t>
         </is>
       </c>
     </row>
@@ -2393,20 +2356,20 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E6" s="46" t="n">
+      <c r="E6" s="32" t="n">
         <v>3457760</v>
       </c>
-      <c r="F6" s="9" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="60" t="inlineStr">
         <is>
           <t>TEMU6269179</t>
         </is>
       </c>
-      <c r="H6" s="75" t="inlineStr">
+      <c r="H6" s="61" t="inlineStr">
         <is>
           <t>06/26/2022</t>
         </is>
@@ -2428,21 +2391,18 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E7" s="46" t="n">
+      <c r="E7" s="32" t="n">
         <v>950080</v>
       </c>
-      <c r="F7" s="9" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="60" t="inlineStr">
         <is>
           <t>TCKU6099376</t>
         </is>
-      </c>
-      <c r="H7" s="45" t="n">
-        <v>44729</v>
       </c>
     </row>
     <row r="8">
@@ -2461,22 +2421,22 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E8" s="46" t="n">
+      <c r="E8" s="32" t="n">
         <v>3436640</v>
       </c>
-      <c r="F8" s="9" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>ONE</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="60" t="inlineStr">
         <is>
           <t>NYKU0811434</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>arrived</t>
+      <c r="H8" s="61" t="inlineStr">
+        <is>
+          <t>05/03/2022</t>
         </is>
       </c>
     </row>
@@ -2496,22 +2456,22 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E9" s="46" t="n">
+      <c r="E9" s="32" t="n">
         <v>3433120</v>
       </c>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>ONE</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="60" t="inlineStr">
         <is>
           <t>CAIU9538160</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>arrived</t>
+      <c r="H9" s="61" t="inlineStr">
+        <is>
+          <t>05/03/2022</t>
         </is>
       </c>
     </row>
@@ -2531,22 +2491,22 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E10" s="46" t="n">
+      <c r="E10" s="32" t="n">
         <v>3414560</v>
       </c>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>ONE</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="60" t="inlineStr">
         <is>
           <t>TEMU7202776</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>arrived</t>
+      <c r="H10" s="61" t="inlineStr">
+        <is>
+          <t>05/03/2022</t>
         </is>
       </c>
     </row>
@@ -2566,22 +2526,22 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E11" s="46" t="n">
+      <c r="E11" s="32" t="n">
         <v>3426400</v>
       </c>
-      <c r="F11" s="9" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="60" t="inlineStr">
         <is>
           <t>BSIU9250986</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>arrived</t>
+      <c r="H11" s="62" t="inlineStr">
+        <is>
+          <t>Date Error</t>
         </is>
       </c>
     </row>
@@ -2601,22 +2561,22 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E12" s="46" t="n">
+      <c r="E12" s="32" t="n">
         <v>3444640</v>
       </c>
-      <c r="F12" s="9" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>ONE</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" s="60" t="inlineStr">
         <is>
           <t>HLXU8136823</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>arrived</t>
+      <c r="H12" s="61" t="inlineStr">
+        <is>
+          <t>05/03/2022</t>
         </is>
       </c>
     </row>
@@ -2636,22 +2596,22 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E13" s="46" t="n">
+      <c r="E13" s="32" t="n">
         <v>1718400</v>
       </c>
-      <c r="F13" s="9" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>ONE</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="60" t="inlineStr">
         <is>
           <t>TCLU1790145</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>arrived</t>
+      <c r="H13" s="61" t="inlineStr">
+        <is>
+          <t>05/14/2022</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2631,22 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E14" s="46" t="n">
+      <c r="E14" s="32" t="n">
         <v>3440320</v>
       </c>
-      <c r="F14" s="9" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" s="60" t="inlineStr">
         <is>
           <t>EITU1742327</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>arrived</t>
+      <c r="H14" s="62" t="inlineStr">
+        <is>
+          <t>Date Error</t>
         </is>
       </c>
     </row>
@@ -2706,15 +2666,16 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E15" s="46" t="n">
+      <c r="E15" s="32" t="n">
         <v>3439680</v>
       </c>
-      <c r="F15" s="9" t="n"/>
-      <c r="G15" t="inlineStr">
+      <c r="F15" s="4" t="n"/>
+      <c r="G15" s="60" t="inlineStr">
         <is>
           <t>TEMU7570886</t>
         </is>
       </c>
+      <c r="H15" s="63" t="n"/>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
@@ -2732,20 +2693,20 @@
           <t>Blank-PSC12</t>
         </is>
       </c>
-      <c r="E16" s="46" t="n">
+      <c r="E16" s="32" t="n">
         <v>2792867</v>
       </c>
-      <c r="F16" s="9" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" s="60" t="inlineStr">
         <is>
           <t>TGBU4491000</t>
         </is>
       </c>
-      <c r="H16" s="75" t="inlineStr">
+      <c r="H16" s="61" t="inlineStr">
         <is>
           <t>06/08/2022</t>
         </is>
@@ -2767,20 +2728,20 @@
           <t>Blank-PSC12</t>
         </is>
       </c>
-      <c r="E17" s="46" t="n">
+      <c r="E17" s="32" t="n">
         <v>2782626</v>
       </c>
-      <c r="F17" s="9" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" s="60" t="inlineStr">
         <is>
           <t>EGSU9166935</t>
         </is>
       </c>
-      <c r="H17" s="75" t="inlineStr">
+      <c r="H17" s="61" t="inlineStr">
         <is>
           <t>06/08/2022</t>
         </is>
@@ -2802,20 +2763,20 @@
           <t>Blank-PSC12</t>
         </is>
       </c>
-      <c r="E18" s="46" t="n">
+      <c r="E18" s="32" t="n">
         <v>2788079</v>
       </c>
-      <c r="F18" s="9" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" s="60" t="inlineStr">
         <is>
           <t>BMOU5001758</t>
         </is>
       </c>
-      <c r="H18" s="75" t="inlineStr">
+      <c r="H18" s="61" t="inlineStr">
         <is>
           <t>06/18/2022</t>
         </is>
@@ -2837,20 +2798,20 @@
           <t>Blank-PSC12</t>
         </is>
       </c>
-      <c r="E19" s="46" t="n">
+      <c r="E19" s="32" t="n">
         <v>2786616</v>
       </c>
-      <c r="F19" s="9" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" s="60" t="inlineStr">
         <is>
           <t>EISU9228537</t>
         </is>
       </c>
-      <c r="H19" s="75" t="inlineStr">
+      <c r="H19" s="61" t="inlineStr">
         <is>
           <t>06/18/2022</t>
         </is>
@@ -2872,20 +2833,20 @@
           <t>Blank-PSC12</t>
         </is>
       </c>
-      <c r="E20" s="46" t="n">
+      <c r="E20" s="32" t="n">
         <v>2789542</v>
       </c>
-      <c r="F20" s="9" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" s="60" t="inlineStr">
         <is>
           <t>EGHU9483535</t>
         </is>
       </c>
-      <c r="H20" s="75" t="inlineStr">
+      <c r="H20" s="61" t="inlineStr">
         <is>
           <t>06/18/2022</t>
         </is>
@@ -2907,20 +2868,20 @@
           <t>Blank-PSC12</t>
         </is>
       </c>
-      <c r="E21" s="46" t="n">
+      <c r="E21" s="32" t="n">
         <v>2789808</v>
       </c>
-      <c r="F21" s="9" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" s="60" t="inlineStr">
         <is>
           <t>TGBU6912433</t>
         </is>
       </c>
-      <c r="H21" s="75" t="inlineStr">
+      <c r="H21" s="61" t="inlineStr">
         <is>
           <t>06/18/2022</t>
         </is>
@@ -2942,22 +2903,22 @@
           <t>Blank-PSC12</t>
         </is>
       </c>
-      <c r="E22" s="46" t="n">
+      <c r="E22" s="32" t="n">
         <v>2795261</v>
       </c>
-      <c r="F22" s="9" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" s="60" t="inlineStr">
         <is>
           <t>TCLU4970310</t>
         </is>
       </c>
-      <c r="H22" s="75" t="inlineStr">
-        <is>
-          <t>06/22/2022</t>
+      <c r="H22" s="61" t="inlineStr">
+        <is>
+          <t>06/23/2022</t>
         </is>
       </c>
     </row>
@@ -2972,27 +2933,27 @@
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D23" s="26" t="inlineStr">
+      <c r="D23" s="15" t="inlineStr">
         <is>
           <t>Blank-PSC16</t>
         </is>
       </c>
-      <c r="E23" s="46" t="n">
+      <c r="E23" s="32" t="n">
         <v>2221380</v>
       </c>
-      <c r="F23" s="9" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" s="60" t="inlineStr">
         <is>
           <t>DRYU9132309</t>
         </is>
       </c>
-      <c r="H23" s="75" t="inlineStr">
-        <is>
-          <t>11/an/ Current Status</t>
+      <c r="H23" s="62" t="inlineStr">
+        <is>
+          <t>Date Error</t>
         </is>
       </c>
     </row>
@@ -3012,20 +2973,20 @@
           <t>Blank-PSC16</t>
         </is>
       </c>
-      <c r="E24" s="46" t="n">
+      <c r="E24" s="32" t="n">
         <v>2224320</v>
       </c>
-      <c r="F24" s="9" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G24" s="60" t="inlineStr">
         <is>
           <t>EITU9071631</t>
         </is>
       </c>
-      <c r="H24" s="75" t="inlineStr">
+      <c r="H24" s="61" t="inlineStr">
         <is>
           <t>06/08/2022</t>
         </is>
@@ -3047,20 +3008,20 @@
           <t>Blank-PSC16</t>
         </is>
       </c>
-      <c r="E25" s="46" t="n">
+      <c r="E25" s="32" t="n">
         <v>2225685</v>
       </c>
-      <c r="F25" s="9" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G25" s="60" t="inlineStr">
         <is>
           <t>BEAU6310783</t>
         </is>
       </c>
-      <c r="H25" s="75" t="inlineStr">
+      <c r="H25" s="61" t="inlineStr">
         <is>
           <t>06/08/2022</t>
         </is>
@@ -3082,19 +3043,20 @@
           <t>Blank-PSC16</t>
         </is>
       </c>
-      <c r="E26" s="46" t="n">
+      <c r="E26" s="32" t="n">
         <v>2112000</v>
       </c>
-      <c r="F26" s="9" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>?</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G26" s="60" t="inlineStr">
         <is>
           <t>UACU5560290</t>
         </is>
       </c>
+      <c r="H26" s="63" t="n"/>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
@@ -3112,7 +3074,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E27" s="46" t="n">
+      <c r="E27" s="32" t="n">
         <v>1054.46</v>
       </c>
       <c r="F27" t="inlineStr">
@@ -3120,14 +3082,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G27" s="60" t="inlineStr">
         <is>
           <t>OOCU7384697</t>
         </is>
       </c>
-      <c r="H27" s="45" t="n">
-        <v>44674</v>
-      </c>
+      <c r="H27" s="63" t="n"/>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
@@ -3145,7 +3105,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E28" s="46" t="n">
+      <c r="E28" s="32" t="n">
         <v>1015.39705</v>
       </c>
       <c r="F28" t="inlineStr">
@@ -3153,14 +3113,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G28" s="60" t="inlineStr">
         <is>
           <t>OOCU7767335</t>
         </is>
       </c>
-      <c r="H28" s="45" t="n">
-        <v>44684</v>
-      </c>
+      <c r="H28" s="63" t="n"/>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
@@ -3178,7 +3136,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E29" s="46" t="n">
+      <c r="E29" s="32" t="n">
         <v>977.86786</v>
       </c>
       <c r="F29" t="inlineStr">
@@ -3186,14 +3144,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G29" s="60" t="inlineStr">
         <is>
           <t>CBHU7035084</t>
         </is>
       </c>
-      <c r="H29" s="45" t="n">
-        <v>44687</v>
-      </c>
+      <c r="H29" s="63" t="n"/>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
@@ -3211,7 +3167,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E30" s="46" t="n">
+      <c r="E30" s="32" t="n">
         <v>977.86786</v>
       </c>
       <c r="F30" t="inlineStr">
@@ -3219,14 +3175,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G30" s="60" t="inlineStr">
         <is>
           <t>TRHU5451388</t>
         </is>
       </c>
-      <c r="H30" s="45" t="n">
-        <v>44688</v>
-      </c>
+      <c r="H30" s="63" t="n"/>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
@@ -3244,7 +3198,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E31" s="46" t="n">
+      <c r="E31" s="32" t="n">
         <v>985.34494</v>
       </c>
       <c r="F31" t="inlineStr">
@@ -3252,14 +3206,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G31" s="60" t="inlineStr">
         <is>
           <t>TCNU6262554</t>
         </is>
       </c>
-      <c r="H31" s="45" t="n">
-        <v>44697</v>
-      </c>
+      <c r="H31" s="63" t="n"/>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
@@ -3277,7 +3229,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E32" s="46" t="n">
+      <c r="E32" s="32" t="n">
         <v>1049.42735</v>
       </c>
       <c r="F32" t="inlineStr">
@@ -3285,14 +3237,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G32" s="60" t="inlineStr">
         <is>
           <t>WBPU7009241</t>
         </is>
       </c>
-      <c r="H32" s="45" t="n">
-        <v>44697</v>
-      </c>
+      <c r="H32" s="63" t="n"/>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
@@ -3310,7 +3260,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E33" s="46" t="n">
+      <c r="E33" s="32" t="n">
         <v>1012.85676</v>
       </c>
       <c r="F33" t="inlineStr">
@@ -3318,14 +3268,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G33" s="60" t="inlineStr">
         <is>
           <t>OOCU7153450</t>
         </is>
       </c>
-      <c r="H33" s="45" t="n">
-        <v>44705</v>
-      </c>
+      <c r="H33" s="63" t="n"/>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
@@ -3343,7 +3291,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E34" s="46" t="n">
+      <c r="E34" s="32" t="n">
         <v>1019.32731</v>
       </c>
       <c r="F34" t="inlineStr">
@@ -3351,14 +3299,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G34" s="60" t="inlineStr">
         <is>
           <t>TCNU2604638</t>
         </is>
       </c>
-      <c r="H34" s="45" t="n">
-        <v>44726</v>
-      </c>
+      <c r="H34" s="63" t="n"/>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
@@ -3376,7 +3322,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E35" s="46" t="n">
+      <c r="E35" s="32" t="n">
         <v>1036.10281</v>
       </c>
       <c r="F35" t="inlineStr">
@@ -3384,14 +3330,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G35" s="60" t="inlineStr">
         <is>
           <t>TRHU5505421</t>
         </is>
       </c>
-      <c r="H35" s="45" t="n">
-        <v>44730</v>
-      </c>
+      <c r="H35" s="63" t="n"/>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
@@ -3409,7 +3353,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E36" s="46" t="n">
+      <c r="E36" s="32" t="n">
         <v>930.9923199999999</v>
       </c>
       <c r="F36" t="inlineStr">
@@ -3417,11 +3361,12 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G36" s="60" t="inlineStr">
         <is>
           <t>TCNU8395005</t>
         </is>
       </c>
+      <c r="H36" s="63" t="n"/>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
@@ -3439,9 +3384,12 @@
           <t>Feb runContainer#3 - WBPU7009241</t>
         </is>
       </c>
-      <c r="E37" s="47" t="n"/>
-      <c r="F37" s="9" t="n"/>
-      <c r="G37" s="40" t="n"/>
+      <c r="F37" s="4" t="n"/>
+      <c r="G37" s="59" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
@@ -3459,18 +3407,17 @@
           <t>Feb runContainer#4 -</t>
         </is>
       </c>
-      <c r="E38" s="47" t="n"/>
-      <c r="F38" s="9" t="inlineStr">
+      <c r="F38" s="4" t="inlineStr">
         <is>
           <t>ONE</t>
         </is>
       </c>
-      <c r="G38" s="40" t="inlineStr">
+      <c r="G38" s="59" t="inlineStr">
         <is>
           <t xml:space="preserve">TCNU8395005	</t>
         </is>
       </c>
-      <c r="H38" s="76" t="inlineStr">
+      <c r="H38" s="61" t="inlineStr">
         <is>
           <t>05/03/2022</t>
         </is>
@@ -3492,20 +3439,17 @@
           <t>Feb runContainer#5 -</t>
         </is>
       </c>
-      <c r="E39" s="47" t="n"/>
       <c r="F39" t="inlineStr">
         <is>
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G39" s="40" t="inlineStr">
+      <c r="G39" s="59" t="inlineStr">
         <is>
           <t xml:space="preserve">TCNU2604638	</t>
         </is>
       </c>
-      <c r="H39" s="45" t="n">
-        <v>44730</v>
-      </c>
+      <c r="H39" s="63" t="n"/>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
@@ -3523,20 +3467,17 @@
           <t>Feb runContainer#6 -</t>
         </is>
       </c>
-      <c r="E40" s="47" t="n"/>
       <c r="F40" t="inlineStr">
         <is>
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G40" s="40" t="inlineStr">
+      <c r="G40" s="59" t="inlineStr">
         <is>
           <t xml:space="preserve">CCLU7457222	</t>
         </is>
       </c>
-      <c r="H40" s="45" t="n">
-        <v>44730</v>
-      </c>
+      <c r="H40" s="63" t="n"/>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
@@ -3554,20 +3495,17 @@
           <t>May Run cold cups 12 of 12 containers9 pallets of Bottom-PCC16/2113 pallets of Bottom-PCC16/21</t>
         </is>
       </c>
-      <c r="E41" s="47" t="n"/>
       <c r="F41" t="inlineStr">
         <is>
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G41" s="40" t="inlineStr">
+      <c r="G41" s="59" t="inlineStr">
         <is>
           <t xml:space="preserve">TLLU7791403	</t>
         </is>
       </c>
-      <c r="H41" s="45" t="n">
-        <v>44730</v>
-      </c>
+      <c r="H41" s="63" t="n"/>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
@@ -3585,20 +3523,17 @@
           <t>May run cold cups - 1 of 12 containers4 pallets of paper blanks for trial + WDYS Blank-PCC16</t>
         </is>
       </c>
-      <c r="E42" s="47" t="n"/>
       <c r="F42" t="inlineStr">
         <is>
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G42" s="40" t="inlineStr">
+      <c r="G42" s="59" t="inlineStr">
         <is>
           <t xml:space="preserve">CBHU9067521	</t>
         </is>
       </c>
-      <c r="H42" s="45" t="n">
-        <v>44730</v>
-      </c>
+      <c r="H42" s="63" t="n"/>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
@@ -3616,20 +3551,17 @@
           <t>May run cold cups - 2 of 12 containers22 pallets of WDYS Blank-PCC16</t>
         </is>
       </c>
-      <c r="E43" s="47" t="n"/>
       <c r="F43" t="inlineStr">
         <is>
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G43" s="40" t="inlineStr">
+      <c r="G43" s="59" t="inlineStr">
         <is>
           <t xml:space="preserve">TGBU4697877	</t>
         </is>
       </c>
-      <c r="H43" s="45" t="n">
-        <v>44730</v>
-      </c>
+      <c r="H43" s="63" t="n"/>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
@@ -3647,20 +3579,17 @@
           <t>May Run cold cups - 10 of 12 containers22 pallets of WDYS Blank-PCC32</t>
         </is>
       </c>
-      <c r="E44" s="47" t="n"/>
       <c r="F44" t="inlineStr">
         <is>
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G44" s="40" t="inlineStr">
+      <c r="G44" s="59" t="inlineStr">
         <is>
           <t xml:space="preserve">TCKU7811696	</t>
         </is>
       </c>
-      <c r="H44" s="45" t="n">
-        <v>44730</v>
-      </c>
+      <c r="H44" s="63" t="n"/>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
@@ -3683,14 +3612,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G45" s="60" t="inlineStr">
         <is>
           <t>OOCU8195677</t>
         </is>
       </c>
-      <c r="H45" s="45" t="n">
-        <v>44731</v>
-      </c>
+      <c r="H45" s="63" t="n"/>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
@@ -3713,14 +3640,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G46" s="60" t="inlineStr">
         <is>
           <t>OOCU8287135</t>
         </is>
       </c>
-      <c r="H46" s="45" t="n">
-        <v>44731</v>
-      </c>
+      <c r="H46" s="63" t="n"/>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
@@ -3743,14 +3668,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G47" s="60" t="inlineStr">
         <is>
           <t>TCLU9733389</t>
         </is>
       </c>
-      <c r="H47" s="45" t="n">
-        <v>44731</v>
-      </c>
+      <c r="H47" s="63" t="n"/>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
@@ -3773,14 +3696,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G48" s="60" t="inlineStr">
         <is>
           <t>CBHU9122824</t>
         </is>
       </c>
-      <c r="H48" s="45" t="n">
-        <v>44734</v>
-      </c>
+      <c r="H48" s="63" t="n"/>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
@@ -3803,11 +3724,12 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G49" s="60" t="inlineStr">
         <is>
           <t>WHSU5307423</t>
         </is>
       </c>
+      <c r="H49" s="63" t="n"/>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
@@ -3830,14 +3752,14 @@
           <t>Cosco</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G50" s="60" t="inlineStr">
         <is>
           <t>TCNU7749090</t>
         </is>
       </c>
-      <c r="H50" s="75" t="inlineStr">
-        <is>
-          <t>07/08/2022</t>
+      <c r="H50" s="61" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
         </is>
       </c>
     </row>
@@ -3862,12 +3784,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G51" s="60" t="inlineStr">
         <is>
           <t>MAGU5417922</t>
         </is>
       </c>
-      <c r="H51" s="75" t="inlineStr">
+      <c r="H51" s="61" t="inlineStr">
         <is>
           <t>06/19/2022</t>
         </is>
@@ -3894,12 +3816,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G52" s="60" t="inlineStr">
         <is>
           <t>TGBU4523160</t>
         </is>
       </c>
-      <c r="H52" s="75" t="inlineStr">
+      <c r="H52" s="61" t="inlineStr">
         <is>
           <t>07/10/2022</t>
         </is>
@@ -3926,12 +3848,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G53" s="60" t="inlineStr">
         <is>
           <t>EGHU9084664</t>
         </is>
       </c>
-      <c r="H53" s="75" t="inlineStr">
+      <c r="H53" s="61" t="inlineStr">
         <is>
           <t>06/19/2022</t>
         </is>
@@ -3958,14 +3880,14 @@
           <t>Cosco</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G54" s="60" t="inlineStr">
         <is>
           <t>CSNU6261402</t>
         </is>
       </c>
-      <c r="H54" s="75" t="inlineStr">
-        <is>
-          <t>07/08/2022</t>
+      <c r="H54" s="61" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
         </is>
       </c>
     </row>
@@ -3990,14 +3912,14 @@
           <t>Cosco</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G55" s="60" t="inlineStr">
         <is>
           <t>TGBU8873017</t>
         </is>
       </c>
-      <c r="H55" s="75" t="inlineStr">
-        <is>
-          <t>07/08/2022</t>
+      <c r="H55" s="61" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
         </is>
       </c>
     </row>
@@ -4022,12 +3944,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G56" s="60" t="inlineStr">
         <is>
           <t>EMCU8546905</t>
         </is>
       </c>
-      <c r="H56" s="75" t="inlineStr">
+      <c r="H56" s="61" t="inlineStr">
         <is>
           <t>07/10/2022</t>
         </is>
@@ -4054,12 +3976,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G57" s="60" t="inlineStr">
         <is>
           <t>EMCU8209653</t>
         </is>
       </c>
-      <c r="H57" s="75" t="inlineStr">
+      <c r="H57" s="61" t="inlineStr">
         <is>
           <t>07/10/2022</t>
         </is>
@@ -4086,11 +4008,12 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G58" s="60" t="inlineStr">
         <is>
           <t>CAIU7487211</t>
         </is>
       </c>
+      <c r="H58" s="63" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:H26"/>

--- a/Shipping Excel Sheet.xlsx
+++ b/Shipping Excel Sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="19090" yWindow="1280" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="19090" yWindow="1280" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly needs" sheetId="1" state="visible" r:id="rId1"/>
@@ -265,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -275,7 +275,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,13 +417,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="4" fontId="2" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -868,40 +867,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="18.5703125" bestFit="1" customWidth="1" style="30" min="2" max="2"/>
-    <col width="15.140625" bestFit="1" customWidth="1" style="30" min="3" max="4"/>
-    <col width="10.85546875" customWidth="1" style="30" min="5" max="5"/>
-    <col width="19.28515625" customWidth="1" style="30" min="6" max="6"/>
+    <col width="18.5703125" bestFit="1" customWidth="1" style="29" min="2" max="2"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="29" min="3" max="4"/>
+    <col width="10.85546875" customWidth="1" style="29" min="5" max="5"/>
+    <col width="19.28515625" customWidth="1" style="29" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="30" thickBot="1"/>
-    <row r="2" ht="15.75" customHeight="1" s="30" thickBot="1">
-      <c r="B2" s="16" t="inlineStr">
+    <row r="1" ht="15.75" customHeight="1" s="29" thickBot="1"/>
+    <row r="2" ht="15.75" customHeight="1" s="29" thickBot="1">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="C2" s="17" t="inlineStr">
+      <c r="C2" s="16" t="inlineStr">
         <is>
           <t>Monthly Usage</t>
         </is>
       </c>
-      <c r="D2" s="36" t="inlineStr">
+      <c r="D2" s="35" t="inlineStr">
         <is>
           <t>Convert to Ton</t>
         </is>
       </c>
-      <c r="E2" s="38" t="inlineStr">
+      <c r="E2" s="37" t="inlineStr">
         <is>
           <t xml:space="preserve">containers </t>
         </is>
       </c>
-      <c r="F2" s="53" t="inlineStr">
+      <c r="F2" s="52" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="G2" s="33" t="inlineStr">
+      <c r="G2" s="32" t="inlineStr">
         <is>
           <t>Wkly</t>
         </is>
@@ -927,366 +926,366 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="30" thickBot="1">
-      <c r="B3" s="16" t="inlineStr">
+    <row r="3" ht="15.75" customHeight="1" s="29" thickBot="1">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>PPEY Blank-PSC07</t>
         </is>
       </c>
-      <c r="C3" s="18" t="n">
+      <c r="C3" s="17" t="n">
         <v>16279680</v>
       </c>
-      <c r="D3" s="36" t="n">
+      <c r="D3" s="35" t="n">
         <v>74</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="41">
         <f>D3/23</f>
         <v/>
       </c>
-      <c r="F3" s="48" t="inlineStr">
+      <c r="F3" s="47" t="inlineStr">
         <is>
           <t>Every week</t>
         </is>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="40">
         <f>E3/4</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="30" thickBot="1">
-      <c r="B4" s="19" t="inlineStr">
+    <row r="4" ht="15.75" customHeight="1" s="29" thickBot="1">
+      <c r="B4" s="18" t="inlineStr">
         <is>
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="C4" s="20" t="n">
+      <c r="C4" s="19" t="n">
         <v>9712800</v>
       </c>
-      <c r="D4" s="37" t="n">
+      <c r="D4" s="36" t="n">
         <v>63</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="42">
         <f>D4/23</f>
         <v/>
       </c>
-      <c r="F4" s="49" t="inlineStr">
+      <c r="F4" s="48" t="inlineStr">
         <is>
           <t xml:space="preserve">Three weeks </t>
         </is>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="39">
         <f>E4/4</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="30" thickBot="1">
-      <c r="B5" s="19" t="inlineStr">
+    <row r="5" ht="15.75" customHeight="1" s="29" thickBot="1">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>PPEY Blank-PSC16</t>
         </is>
       </c>
-      <c r="C5" s="20" t="n">
+      <c r="C5" s="19" t="n">
         <v>6000000</v>
       </c>
-      <c r="D5" s="37" t="n">
+      <c r="D5" s="36" t="n">
         <v>60</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="44">
         <f>D5/23</f>
         <v/>
       </c>
-      <c r="F5" s="50" t="inlineStr">
+      <c r="F5" s="49" t="inlineStr">
         <is>
           <t xml:space="preserve">Three weeks </t>
         </is>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="39">
         <f>E5/4</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="30" thickBot="1">
-      <c r="B6" s="19" t="inlineStr">
+    <row r="6" ht="15.75" customHeight="1" s="29" thickBot="1">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Blank-PSC12</t>
         </is>
       </c>
-      <c r="C6" s="20" t="n">
+      <c r="C6" s="19" t="n">
         <v>3251000</v>
       </c>
-      <c r="D6" s="37" t="n">
+      <c r="D6" s="36" t="n">
         <v>23</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <f>D6/23</f>
         <v/>
       </c>
-      <c r="F6" s="51" t="inlineStr">
+      <c r="F6" s="50" t="inlineStr">
         <is>
           <t>Once</t>
         </is>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="39">
         <f>E6/4</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="30" thickBot="1">
-      <c r="B7" s="19" t="inlineStr">
+    <row r="7" ht="15.75" customHeight="1" s="29" thickBot="1">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>Blank-PSC07</t>
         </is>
       </c>
-      <c r="C7" s="20" t="n">
+      <c r="C7" s="19" t="n">
         <v>3962000</v>
       </c>
-      <c r="D7" s="37" t="n">
+      <c r="D7" s="36" t="n">
         <v>18</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="41">
         <f>D7/23</f>
         <v/>
       </c>
-      <c r="F7" s="48" t="inlineStr">
+      <c r="F7" s="47" t="inlineStr">
         <is>
           <t>one</t>
         </is>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="40">
         <f>E7/4</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="30" thickBot="1">
-      <c r="B8" s="19" t="inlineStr">
+    <row r="8" ht="15.75" customHeight="1" s="29" thickBot="1">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>ABEE Blank-PSC08</t>
         </is>
       </c>
-      <c r="C8" s="20" t="n">
+      <c r="C8" s="19" t="n">
         <v>2640000</v>
       </c>
-      <c r="D8" s="37" t="n">
+      <c r="D8" s="36" t="n">
         <v>17</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <f>D8/23</f>
         <v/>
       </c>
-      <c r="F8" s="50" t="inlineStr">
+      <c r="F8" s="49" t="inlineStr">
         <is>
           <t xml:space="preserve">one </t>
         </is>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="39">
         <f>E8/4</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="30" thickBot="1">
-      <c r="B9" s="19" t="inlineStr">
+    <row r="9" ht="15.75" customHeight="1" s="29" thickBot="1">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>Blank-PSC16</t>
         </is>
       </c>
-      <c r="C9" s="20" t="n">
+      <c r="C9" s="19" t="n">
         <v>627500</v>
       </c>
-      <c r="D9" s="37" t="n">
+      <c r="D9" s="36" t="n">
         <v>6</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="42">
         <f>D9/23</f>
         <v/>
       </c>
-      <c r="F9" s="49" t="inlineStr">
+      <c r="F9" s="48" t="inlineStr">
         <is>
           <t xml:space="preserve">one </t>
         </is>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="39">
         <f>E9/4</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="30" thickBot="1">
-      <c r="B10" s="19" t="inlineStr">
+    <row r="10" ht="15.75" customHeight="1" s="29" thickBot="1">
+      <c r="B10" s="18" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C10" s="20" t="n">
+      <c r="C10" s="19" t="n">
         <v>42472980</v>
       </c>
-      <c r="D10" s="37" t="n">
+      <c r="D10" s="36" t="n">
         <v>261</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="38">
         <f>D10/23</f>
         <v/>
       </c>
-      <c r="F10" s="52" t="n"/>
-      <c r="G10" s="33" t="n"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="30" thickBot="1"/>
-    <row r="12" ht="72" customHeight="1" s="30" thickBot="1">
-      <c r="B12" s="21" t="inlineStr">
+      <c r="F10" s="51" t="n"/>
+      <c r="G10" s="32" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="29" thickBot="1"/>
+    <row r="12" ht="72" customHeight="1" s="29" thickBot="1">
+      <c r="B12" s="20" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="C12" s="22" t="inlineStr">
+      <c r="C12" s="21" t="inlineStr">
         <is>
           <t>Monthly Usage</t>
         </is>
       </c>
-      <c r="D12" s="22" t="inlineStr">
+      <c r="D12" s="21" t="inlineStr">
         <is>
           <t>Open order qty</t>
         </is>
       </c>
-      <c r="E12" s="23" t="inlineStr">
+      <c r="E12" s="22" t="inlineStr">
         <is>
           <t xml:space="preserve"> open orders can cover how many months </t>
         </is>
       </c>
-      <c r="F12" s="46" t="n"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="30" thickBot="1">
-      <c r="B13" s="24" t="inlineStr">
+      <c r="F12" s="45" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="29" thickBot="1">
+      <c r="B13" s="23" t="inlineStr">
         <is>
           <t>Blank-PSC16</t>
         </is>
       </c>
-      <c r="C13" s="25" t="n">
+      <c r="C13" s="24" t="n">
         <v>627500</v>
       </c>
-      <c r="D13" s="25" t="n">
+      <c r="D13" s="24" t="n">
         <v>10989011</v>
       </c>
-      <c r="E13" s="26" t="n">
+      <c r="E13" s="25" t="n">
         <v>18</v>
       </c>
-      <c r="F13" s="47" t="n"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" s="30" thickBot="1">
-      <c r="B14" s="24" t="inlineStr">
+      <c r="F13" s="46" t="n"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" s="29" thickBot="1">
+      <c r="B14" s="23" t="inlineStr">
         <is>
           <t>Blank-PSC12</t>
         </is>
       </c>
-      <c r="C14" s="25" t="n">
+      <c r="C14" s="24" t="n">
         <v>3251000</v>
       </c>
-      <c r="D14" s="25" t="n">
+      <c r="D14" s="24" t="n">
         <v>22188603</v>
       </c>
-      <c r="E14" s="26" t="n">
+      <c r="E14" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="F14" s="47" t="n"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" s="30" thickBot="1">
-      <c r="B15" s="24" t="inlineStr">
+      <c r="F14" s="46" t="n"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" s="29" thickBot="1">
+      <c r="B15" s="23" t="inlineStr">
         <is>
           <t>PPEY Blank-PSC16</t>
         </is>
       </c>
-      <c r="C15" s="25" t="n">
+      <c r="C15" s="24" t="n">
         <v>6000000</v>
       </c>
-      <c r="D15" s="25" t="n">
+      <c r="D15" s="24" t="n">
         <v>30769231</v>
       </c>
-      <c r="E15" s="26" t="n">
+      <c r="E15" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="F15" s="47" t="n"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1" s="30" thickBot="1">
-      <c r="B16" s="24" t="inlineStr">
+      <c r="F15" s="46" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" s="29" thickBot="1">
+      <c r="B16" s="23" t="inlineStr">
         <is>
           <t>ABEE Blank-PSC08</t>
         </is>
       </c>
-      <c r="C16" s="25" t="n">
+      <c r="C16" s="24" t="n">
         <v>2640000</v>
       </c>
-      <c r="D16" s="25" t="n">
+      <c r="D16" s="24" t="n">
         <v>10216718</v>
       </c>
-      <c r="E16" s="26" t="n">
+      <c r="E16" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="F16" s="47" t="n"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" s="30" thickBot="1">
-      <c r="B17" s="24" t="inlineStr">
+      <c r="F16" s="46" t="n"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="29" thickBot="1">
+      <c r="B17" s="23" t="inlineStr">
         <is>
           <t>PPEY Blank-PSC07</t>
         </is>
       </c>
-      <c r="C17" s="25" t="n">
+      <c r="C17" s="24" t="n">
         <v>16279680</v>
       </c>
-      <c r="D17" s="25" t="n">
+      <c r="D17" s="24" t="n">
         <v>43516484</v>
       </c>
-      <c r="E17" s="26" t="n">
+      <c r="E17" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="F17" s="47" t="n"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" s="30" thickBot="1">
-      <c r="B18" s="24" t="inlineStr">
+      <c r="F17" s="46" t="n"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="29" thickBot="1">
+      <c r="B18" s="23" t="inlineStr">
         <is>
           <t>Blank-PSC07</t>
         </is>
       </c>
-      <c r="C18" s="25" t="n">
+      <c r="C18" s="24" t="n">
         <v>3962000</v>
       </c>
-      <c r="D18" s="25" t="n">
+      <c r="D18" s="24" t="n">
         <v>9670330</v>
       </c>
-      <c r="E18" s="26" t="n">
+      <c r="E18" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="F18" s="47" t="n"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1" s="30" thickBot="1">
-      <c r="B19" s="24" t="inlineStr">
+      <c r="F18" s="46" t="n"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="29" thickBot="1">
+      <c r="B19" s="23" t="inlineStr">
         <is>
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="C19" s="25" t="n">
+      <c r="C19" s="24" t="n">
         <v>9712800</v>
       </c>
-      <c r="D19" s="25" t="n">
+      <c r="D19" s="24" t="n">
         <v>17027864</v>
       </c>
-      <c r="E19" s="26" t="n">
+      <c r="E19" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="F19" s="47" t="n"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1" s="30" thickBot="1">
-      <c r="B20" s="24" t="inlineStr">
+      <c r="F19" s="46" t="n"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="29" thickBot="1">
+      <c r="B20" s="23" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C20" s="25" t="n">
+      <c r="C20" s="24" t="n">
         <v>42472980</v>
       </c>
-      <c r="D20" s="25" t="n">
+      <c r="D20" s="24" t="n">
         <v>144378240</v>
       </c>
-      <c r="E20" s="26" t="n">
+      <c r="E20" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="F20" s="47" t="n"/>
+      <c r="F20" s="46" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1299,28 +1298,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="G38" sqref="G2:G38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="16" bestFit="1" customWidth="1" style="30" min="2" max="2"/>
-    <col width="38.42578125" bestFit="1" customWidth="1" style="30" min="3" max="3"/>
-    <col width="49.85546875" customWidth="1" style="33" min="4" max="4"/>
-    <col width="14.7109375" customWidth="1" style="56" min="5" max="5"/>
-    <col width="17.7109375" bestFit="1" customWidth="1" style="30" min="6" max="6"/>
-    <col width="19.5703125" customWidth="1" style="30" min="7" max="7"/>
-    <col width="17.28515625" customWidth="1" style="30" min="8" max="8"/>
-    <col width="15.85546875" customWidth="1" style="30" min="9" max="9"/>
-    <col width="15.7109375" bestFit="1" customWidth="1" style="30" min="10" max="11"/>
-    <col width="17.28515625" customWidth="1" style="30" min="12" max="17"/>
+    <col width="16" bestFit="1" customWidth="1" style="29" min="2" max="2"/>
+    <col width="38.42578125" bestFit="1" customWidth="1" style="29" min="3" max="3"/>
+    <col width="49.85546875" customWidth="1" style="32" min="4" max="4"/>
+    <col width="14.7109375" customWidth="1" style="55" min="5" max="5"/>
+    <col width="17.7109375" bestFit="1" customWidth="1" style="29" min="6" max="6"/>
+    <col width="19.5703125" customWidth="1" style="29" min="7" max="7"/>
+    <col width="17.28515625" customWidth="1" style="29" min="8" max="8"/>
+    <col width="15.85546875" customWidth="1" style="29" min="9" max="9"/>
+    <col width="15.7109375" bestFit="1" customWidth="1" style="29" min="10" max="11"/>
+    <col width="17.28515625" customWidth="1" style="29" min="12" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="E1" s="56" t="inlineStr">
+      <c r="E1" s="55" t="inlineStr">
         <is>
           <t>Carrier</t>
         </is>
@@ -1337,7 +1336,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="34" t="inlineStr">
+      <c r="B2" s="33" t="inlineStr">
         <is>
           <t>PPEY Blank-PSC07</t>
         </is>
@@ -1355,10 +1354,10 @@
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="7" t="n">
         <v>4740799</v>
       </c>
-      <c r="E3" s="54" t="inlineStr">
+      <c r="E3" s="53" t="inlineStr">
         <is>
           <t>Cosco</t>
         </is>
@@ -1368,14 +1367,13 @@
           <t>SEGU5093860</t>
         </is>
       </c>
-      <c r="G3" s="64" t="inlineStr">
+      <c r="G3" s="63" t="inlineStr">
         <is>
           <t>arrived</t>
         </is>
       </c>
       <c r="H3" s="5" t="n"/>
-      <c r="I3" s="5" t="n"/>
-      <c r="J3" s="6" t="n"/>
+      <c r="I3" s="6" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n"/>
@@ -1389,10 +1387,10 @@
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="7" t="n">
         <v>3311203</v>
       </c>
-      <c r="E4" s="54" t="inlineStr">
+      <c r="E4" s="53" t="inlineStr">
         <is>
           <t>ONE</t>
         </is>
@@ -1402,14 +1400,13 @@
           <t>TCNU7076512</t>
         </is>
       </c>
-      <c r="G4" s="64" t="inlineStr">
+      <c r="G4" s="63" t="inlineStr">
         <is>
           <t>arrived</t>
         </is>
       </c>
       <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="n"/>
-      <c r="J4" s="6" t="n"/>
+      <c r="I4" s="6" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n"/>
@@ -1423,10 +1420,10 @@
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="7" t="n">
         <v>2634380</v>
       </c>
-      <c r="E5" s="54" t="inlineStr">
+      <c r="E5" s="53" t="inlineStr">
         <is>
           <t>ONE</t>
         </is>
@@ -1436,14 +1433,13 @@
           <t>TCLU1790145</t>
         </is>
       </c>
-      <c r="G5" s="64" t="inlineStr">
+      <c r="G5" s="63" t="inlineStr">
         <is>
           <t>arrived</t>
         </is>
       </c>
       <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="n"/>
-      <c r="J5" s="6" t="n"/>
+      <c r="I5" s="6" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
@@ -1457,10 +1453,10 @@
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="7" t="n">
         <v>4793964</v>
       </c>
-      <c r="E6" s="55" t="inlineStr">
+      <c r="E6" s="54" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
@@ -1470,14 +1466,13 @@
           <t>EGHU9449660</t>
         </is>
       </c>
-      <c r="G6" s="65" t="inlineStr">
+      <c r="G6" s="64" t="inlineStr">
         <is>
           <t>Date Error</t>
         </is>
       </c>
       <c r="H6" s="5" t="n"/>
-      <c r="I6" s="5" t="n"/>
-      <c r="J6" s="6" t="n"/>
+      <c r="I6" s="6" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n"/>
@@ -1491,27 +1486,26 @@
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="7" t="n">
         <v>4777689</v>
       </c>
-      <c r="E7" s="55" t="inlineStr">
+      <c r="E7" s="54" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="F7" s="14" t="inlineStr">
+      <c r="F7" s="13" t="inlineStr">
         <is>
           <t>EGHU8329891</t>
         </is>
       </c>
-      <c r="G7" s="66" t="inlineStr">
+      <c r="G7" s="65" t="inlineStr">
         <is>
           <t>06/08/2022</t>
         </is>
       </c>
       <c r="H7" s="5" t="n"/>
-      <c r="I7" s="5" t="n"/>
-      <c r="J7" s="6" t="n"/>
+      <c r="I7" s="6" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n"/>
@@ -1525,10 +1519,10 @@
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="7" t="n">
         <v>4783765</v>
       </c>
-      <c r="E8" s="55" t="inlineStr">
+      <c r="E8" s="54" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
@@ -1538,16 +1532,15 @@
           <t>EGHU9229006</t>
         </is>
       </c>
-      <c r="G8" s="66" t="inlineStr">
+      <c r="G8" s="65" t="inlineStr">
         <is>
           <t>06/23/2022</t>
         </is>
       </c>
       <c r="H8" s="5" t="n"/>
-      <c r="I8" s="5" t="n"/>
-      <c r="J8" s="6" t="n"/>
-    </row>
-    <row r="9" ht="17.25" customHeight="1" s="30">
+      <c r="I8" s="6" t="n"/>
+    </row>
+    <row r="9" ht="17.25" customHeight="1" s="29">
       <c r="A9" s="2" t="n"/>
       <c r="B9" s="6" t="inlineStr">
         <is>
@@ -1559,10 +1552,10 @@
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="7" t="n">
         <v>237398</v>
       </c>
-      <c r="E9" s="55" t="inlineStr">
+      <c r="E9" s="54" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
@@ -1572,14 +1565,13 @@
           <t>TCKU6099376</t>
         </is>
       </c>
-      <c r="G9" s="66" t="inlineStr">
+      <c r="G9" s="65" t="inlineStr">
         <is>
           <t>06/26/2022</t>
         </is>
       </c>
       <c r="H9" s="5" t="n"/>
-      <c r="I9" s="5" t="n"/>
-      <c r="J9" s="6" t="n"/>
+      <c r="I9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
@@ -1592,12 +1584,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D10" s="15" t="inlineStr">
+      <c r="D10" s="14" t="inlineStr">
         <is>
           <t>Apr Run7 oz. blanks 2 color print (Popeyes)14 point (caliper), basic weight 154, 2PE, 12 + 250 + 18</t>
         </is>
       </c>
-      <c r="E10" s="56" t="inlineStr">
+      <c r="E10" s="55" t="inlineStr">
         <is>
           <t>?</t>
         </is>
@@ -1607,7 +1599,7 @@
           <t>TRHU5800200</t>
         </is>
       </c>
-      <c r="G10" s="63" t="n"/>
+      <c r="G10" s="62" t="n"/>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
@@ -1620,12 +1612,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D11" s="15" t="inlineStr">
+      <c r="D11" s="14" t="inlineStr">
         <is>
           <t>Apr Run7 oz. blanks 2 color print (Popeyes) 14 point (caliper), basic weight 154, 2PE, 12 + 250 + 18$1793/MT FOB</t>
         </is>
       </c>
-      <c r="E11" s="56" t="inlineStr">
+      <c r="E11" s="55" t="inlineStr">
         <is>
           <t>?</t>
         </is>
@@ -1635,7 +1627,7 @@
           <t>TRHU4823752</t>
         </is>
       </c>
-      <c r="G11" s="63" t="n"/>
+      <c r="G11" s="62" t="n"/>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
@@ -1648,12 +1640,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D12" s="15" t="inlineStr">
+      <c r="D12" s="14" t="inlineStr">
         <is>
           <t>Apr Run7 oz. blanks 2 color print (Popeyes)14 point (caliper), basic weight 154, 2PE, 12 + 250 + 18</t>
         </is>
       </c>
-      <c r="E12" s="56" t="inlineStr">
+      <c r="E12" s="55" t="inlineStr">
         <is>
           <t>?</t>
         </is>
@@ -1663,33 +1655,31 @@
           <t>TGBU4119082</t>
         </is>
       </c>
-      <c r="G12" s="63" t="n"/>
+      <c r="G12" s="62" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="L14" s="31" t="n"/>
-      <c r="P14" s="4" t="n"/>
+      <c r="K14" s="30" t="n"/>
+      <c r="O14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n"/>
-      <c r="B15" s="34" t="inlineStr">
+      <c r="B15" s="33" t="inlineStr">
         <is>
           <t>PPEY Blank-PSC16</t>
         </is>
       </c>
       <c r="C15" s="2" t="n"/>
-      <c r="D15" s="9" t="n"/>
-      <c r="E15" s="57" t="n"/>
+      <c r="D15" s="8" t="n"/>
+      <c r="E15" s="56" t="n"/>
       <c r="F15" s="3" t="n"/>
       <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
-      <c r="L15" s="31" t="n"/>
-      <c r="P15" s="4" t="n"/>
+      <c r="K15" s="30" t="n"/>
+      <c r="O15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n"/>
-      <c r="B16" s="11" t="inlineStr">
+      <c r="B16" s="10" t="inlineStr">
         <is>
           <t>2022-00-31383</t>
         </is>
@@ -1699,30 +1689,30 @@
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="9" t="n">
         <v>2227890</v>
       </c>
-      <c r="E16" s="55" t="inlineStr">
+      <c r="E16" s="54" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="F16" s="11" t="inlineStr">
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t>TCNU3811162</t>
         </is>
       </c>
-      <c r="G16" s="61" t="inlineStr">
+      <c r="G16" s="60" t="inlineStr">
         <is>
           <t>06/18/2022</t>
         </is>
       </c>
-      <c r="L16" s="31" t="n"/>
-      <c r="P16" s="4" t="n"/>
+      <c r="K16" s="30" t="n"/>
+      <c r="O16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n"/>
-      <c r="B17" s="11" t="inlineStr">
+      <c r="B17" s="10" t="inlineStr">
         <is>
           <t>2021-00-27917</t>
         </is>
@@ -1732,56 +1722,56 @@
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="9" t="n">
         <v>2224950</v>
       </c>
-      <c r="E17" s="55" t="inlineStr">
+      <c r="E17" s="54" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="F17" s="11" t="inlineStr">
+      <c r="F17" s="10" t="inlineStr">
         <is>
           <t>TCNU6796800</t>
         </is>
       </c>
-      <c r="G17" s="61" t="inlineStr">
+      <c r="G17" s="60" t="inlineStr">
         <is>
           <t>06/18/2022</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="12" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="58" t="n"/>
-      <c r="F18" s="12" t="n"/>
+      <c r="B18" s="11" t="n"/>
+      <c r="C18" s="11" t="n"/>
+      <c r="D18" s="12" t="n"/>
+      <c r="E18" s="57" t="n"/>
+      <c r="F18" s="11" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="12" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="58" t="n"/>
-      <c r="F19" s="11" t="n"/>
+      <c r="B19" s="11" t="n"/>
+      <c r="C19" s="11" t="n"/>
+      <c r="D19" s="12" t="n"/>
+      <c r="E19" s="57" t="n"/>
+      <c r="F19" s="10" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="12" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="58" t="n"/>
-      <c r="F20" s="12" t="n"/>
+      <c r="B20" s="11" t="n"/>
+      <c r="C20" s="11" t="n"/>
+      <c r="D20" s="12" t="n"/>
+      <c r="E20" s="57" t="n"/>
+      <c r="F20" s="11" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="35" t="inlineStr">
+      <c r="B21" s="34" t="inlineStr">
         <is>
           <t>ABEE Blank-PSC08</t>
         </is>
       </c>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="58" t="n"/>
-      <c r="F21" s="12" t="n"/>
+      <c r="C21" s="11" t="n"/>
+      <c r="D21" s="12" t="n"/>
+      <c r="E21" s="57" t="n"/>
+      <c r="F21" s="11" t="n"/>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
@@ -1797,7 +1787,7 @@
       <c r="D22" s="4" t="n">
         <v>3520000</v>
       </c>
-      <c r="E22" s="56" t="inlineStr">
+      <c r="E22" s="55" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
@@ -1807,7 +1797,7 @@
           <t>EITU1589389</t>
         </is>
       </c>
-      <c r="G22" s="61" t="inlineStr">
+      <c r="G22" s="60" t="inlineStr">
         <is>
           <t>06/26/2022</t>
         </is>
@@ -1827,7 +1817,7 @@
       <c r="D23" s="4" t="n">
         <v>3462720</v>
       </c>
-      <c r="E23" s="56" t="inlineStr">
+      <c r="E23" s="55" t="inlineStr">
         <is>
           <t>Evergreen</t>
         </is>
@@ -1837,21 +1827,21 @@
           <t>DRYU9855186</t>
         </is>
       </c>
-      <c r="G23" s="62" t="inlineStr">
+      <c r="G23" s="61" t="inlineStr">
         <is>
           <t>Date Error</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="12" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="58" t="n"/>
-      <c r="F24" s="12" t="n"/>
+      <c r="B24" s="11" t="n"/>
+      <c r="C24" s="11" t="n"/>
+      <c r="D24" s="12" t="n"/>
+      <c r="E24" s="57" t="n"/>
+      <c r="F24" s="11" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="35" t="inlineStr">
+      <c r="B26" s="34" t="inlineStr">
         <is>
           <t>WDYS</t>
         </is>
@@ -1868,12 +1858,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D27" s="29" t="inlineStr">
+      <c r="D27" s="28" t="inlineStr">
         <is>
           <t>May run cold cups - 3 of 12 containers22 pallets of WDYS Blank-PCC21</t>
         </is>
       </c>
-      <c r="E27" s="56" t="inlineStr">
+      <c r="E27" s="55" t="inlineStr">
         <is>
           <t>HMM</t>
         </is>
@@ -1883,7 +1873,7 @@
           <t>GAOU6156706</t>
         </is>
       </c>
-      <c r="G27" s="61" t="inlineStr">
+      <c r="G27" s="60" t="inlineStr">
         <is>
           <t>06/26/2022</t>
         </is>
@@ -1900,12 +1890,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D28" s="27" t="inlineStr">
+      <c r="D28" s="26" t="inlineStr">
         <is>
           <t>May run cold cups - 8 of 12 containers22 pallets of WDYS Blank-PCC32</t>
         </is>
       </c>
-      <c r="E28" s="56" t="inlineStr">
+      <c r="E28" s="55" t="inlineStr">
         <is>
           <t>HMM</t>
         </is>
@@ -1915,7 +1905,7 @@
           <t>HMMU6497147</t>
         </is>
       </c>
-      <c r="G28" s="61" t="inlineStr">
+      <c r="G28" s="60" t="inlineStr">
         <is>
           <t>06/20/2022</t>
         </is>
@@ -1932,12 +1922,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D29" s="27" t="inlineStr">
+      <c r="D29" s="26" t="inlineStr">
         <is>
           <t>May Run cold cups - 10 of 12 containers22 pallets of WDYS Blank-PCC32</t>
         </is>
       </c>
-      <c r="E29" s="56" t="inlineStr">
+      <c r="E29" s="55" t="inlineStr">
         <is>
           <t>OOCL</t>
         </is>
@@ -1947,7 +1937,7 @@
           <t>TCKU7811696</t>
         </is>
       </c>
-      <c r="G29" s="63" t="n"/>
+      <c r="G29" s="62" t="n"/>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
@@ -1960,12 +1950,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D30" s="29" t="inlineStr">
+      <c r="D30" s="28" t="inlineStr">
         <is>
           <t>May run cold cups - 5 of 12 containers22 pallets of WDYS Blank-PCC21</t>
         </is>
       </c>
-      <c r="E30" s="56" t="inlineStr">
+      <c r="E30" s="55" t="inlineStr">
         <is>
           <t>OOCL</t>
         </is>
@@ -1975,7 +1965,7 @@
           <t>TRHU7540925</t>
         </is>
       </c>
-      <c r="G30" s="63" t="n"/>
+      <c r="G30" s="62" t="n"/>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
@@ -1988,12 +1978,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D31" s="28" t="inlineStr">
+      <c r="D31" s="27" t="inlineStr">
         <is>
           <t>May run cold cups - 6 of 12 containers18 pallets of WDYS Blank-PCC212 pallets of WDYS Blank-PCC322 pallets of WDYS Blank-PCC16</t>
         </is>
       </c>
-      <c r="E31" s="56" t="inlineStr">
+      <c r="E31" s="55" t="inlineStr">
         <is>
           <t>OOCL</t>
         </is>
@@ -2003,7 +1993,7 @@
           <t>OOCU7537688</t>
         </is>
       </c>
-      <c r="G31" s="63" t="n"/>
+      <c r="G31" s="62" t="n"/>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
@@ -2016,12 +2006,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D32" s="27" t="inlineStr">
+      <c r="D32" s="26" t="inlineStr">
         <is>
           <t>May run cold cups - 7 of 12 containers22 pallets of WDYS Blank-PCC32</t>
         </is>
       </c>
-      <c r="E32" s="56" t="inlineStr">
+      <c r="E32" s="55" t="inlineStr">
         <is>
           <t>OOCL</t>
         </is>
@@ -2031,7 +2021,7 @@
           <t>CSNU7363040</t>
         </is>
       </c>
-      <c r="G32" s="63" t="n"/>
+      <c r="G32" s="62" t="n"/>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
@@ -2044,12 +2034,12 @@
           <t>Ritz Rising International Group Co. LTD</t>
         </is>
       </c>
-      <c r="D33" s="27" t="inlineStr">
+      <c r="D33" s="26" t="inlineStr">
         <is>
           <t>May run cold cups - 9 of 12 containers22 pallets of WDYS Blank-PCC32</t>
         </is>
       </c>
-      <c r="E33" s="56" t="inlineStr">
+      <c r="E33" s="55" t="inlineStr">
         <is>
           <t>OOCL</t>
         </is>
@@ -2059,7 +2049,7 @@
           <t>OOLU9794280</t>
         </is>
       </c>
-      <c r="G33" s="63" t="n"/>
+      <c r="G33" s="62" t="n"/>
     </row>
     <row r="34">
       <c r="E34" t="inlineStr">
@@ -2072,7 +2062,7 @@
           <t>HLXU1143116</t>
         </is>
       </c>
-      <c r="G34" s="67" t="inlineStr">
+      <c r="G34" s="66" t="inlineStr">
         <is>
           <t>arrived</t>
         </is>
@@ -2089,7 +2079,7 @@
           <t>HLXU5257457</t>
         </is>
       </c>
-      <c r="G35" s="67" t="inlineStr">
+      <c r="G35" s="66" t="inlineStr">
         <is>
           <t>arrived</t>
         </is>
@@ -2106,7 +2096,7 @@
           <t>MSKU9342870</t>
         </is>
       </c>
-      <c r="G36" s="67" t="inlineStr">
+      <c r="G36" s="66" t="inlineStr">
         <is>
           <t>arrived</t>
         </is>
@@ -2123,7 +2113,7 @@
           <t>CMAU0459057</t>
         </is>
       </c>
-      <c r="G37" s="61" t="inlineStr">
+      <c r="G37" s="60" t="inlineStr">
         <is>
           <t>06/18/2022</t>
         </is>
@@ -2140,7 +2130,7 @@
           <t>CMAU1999430</t>
         </is>
       </c>
-      <c r="G38" s="63" t="n"/>
+      <c r="G38" s="62" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F32 F27">
@@ -2168,19 +2158,19 @@
   </sheetPr>
   <dimension ref="B1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D48" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="16.5703125" customWidth="1" style="30" min="2" max="2"/>
-    <col width="38.42578125" bestFit="1" customWidth="1" style="30" min="3" max="3"/>
-    <col width="89.140625" bestFit="1" customWidth="1" style="30" min="4" max="4"/>
-    <col width="13.85546875" bestFit="1" customWidth="1" style="33" min="5" max="5"/>
-    <col width="11.85546875" customWidth="1" style="30" min="6" max="6"/>
-    <col width="18.28515625" customWidth="1" style="60" min="7" max="7"/>
-    <col width="12.28515625" customWidth="1" style="30" min="8" max="8"/>
+    <col width="16.5703125" customWidth="1" style="29" min="2" max="2"/>
+    <col width="38.42578125" bestFit="1" customWidth="1" style="29" min="3" max="3"/>
+    <col width="89.140625" bestFit="1" customWidth="1" style="29" min="4" max="4"/>
+    <col width="13.85546875" bestFit="1" customWidth="1" style="32" min="5" max="5"/>
+    <col width="11.85546875" customWidth="1" style="29" min="6" max="6"/>
+    <col width="18.28515625" customWidth="1" style="59" min="7" max="7"/>
+    <col width="12.28515625" customWidth="1" style="29" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2189,7 +2179,7 @@
           <t>Carrier</t>
         </is>
       </c>
-      <c r="G1" s="60" t="inlineStr">
+      <c r="G1" s="59" t="inlineStr">
         <is>
           <t>Container Number</t>
         </is>
@@ -2216,7 +2206,7 @@
           <t>Blank-PSC07</t>
         </is>
       </c>
-      <c r="E2" s="32" t="n">
+      <c r="E2" s="31" t="n">
         <v>4756640</v>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -2224,12 +2214,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G2" s="60" t="inlineStr">
+      <c r="G2" s="59" t="inlineStr">
         <is>
           <t>FCIU9542189</t>
         </is>
       </c>
-      <c r="H2" s="61" t="inlineStr">
+      <c r="H2" s="60" t="inlineStr">
         <is>
           <t>06/08/2022</t>
         </is>
@@ -2251,7 +2241,7 @@
           <t>Blank-PSC07</t>
         </is>
       </c>
-      <c r="E3" s="32" t="n">
+      <c r="E3" s="31" t="n">
         <v>3348527</v>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -2259,12 +2249,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G3" s="60" t="inlineStr">
+      <c r="G3" s="59" t="inlineStr">
         <is>
           <t>TCKU6099376</t>
         </is>
       </c>
-      <c r="H3" s="61" t="inlineStr">
+      <c r="H3" s="60" t="inlineStr">
         <is>
           <t>06/26/2022</t>
         </is>
@@ -2286,7 +2276,7 @@
           <t>Blank-PSC07</t>
         </is>
       </c>
-      <c r="E4" s="32" t="n">
+      <c r="E4" s="31" t="n">
         <v>1402037</v>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -2294,12 +2284,12 @@
           <t>ONE</t>
         </is>
       </c>
-      <c r="G4" s="60" t="inlineStr">
+      <c r="G4" s="59" t="inlineStr">
         <is>
           <t>TCNU7076512</t>
         </is>
       </c>
-      <c r="H4" s="61" t="inlineStr">
+      <c r="H4" s="60" t="inlineStr">
         <is>
           <t>05/03/2022</t>
         </is>
@@ -2321,7 +2311,7 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E5" s="32" t="n">
+      <c r="E5" s="31" t="n">
         <v>3423840</v>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -2329,12 +2319,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G5" s="60" t="inlineStr">
+      <c r="G5" s="59" t="inlineStr">
         <is>
           <t>TCKU6124078</t>
         </is>
       </c>
-      <c r="H5" s="62" t="inlineStr">
+      <c r="H5" s="61" t="inlineStr">
         <is>
           <t>Date Error</t>
         </is>
@@ -2356,7 +2346,7 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E6" s="32" t="n">
+      <c r="E6" s="31" t="n">
         <v>3457760</v>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -2364,12 +2354,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G6" s="60" t="inlineStr">
+      <c r="G6" s="59" t="inlineStr">
         <is>
           <t>TEMU6269179</t>
         </is>
       </c>
-      <c r="H6" s="61" t="inlineStr">
+      <c r="H6" s="60" t="inlineStr">
         <is>
           <t>06/26/2022</t>
         </is>
@@ -2391,7 +2381,7 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E7" s="32" t="n">
+      <c r="E7" s="31" t="n">
         <v>950080</v>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -2399,7 +2389,7 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G7" s="60" t="inlineStr">
+      <c r="G7" s="59" t="inlineStr">
         <is>
           <t>TCKU6099376</t>
         </is>
@@ -2421,7 +2411,7 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E8" s="32" t="n">
+      <c r="E8" s="31" t="n">
         <v>3436640</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -2429,12 +2419,12 @@
           <t>ONE</t>
         </is>
       </c>
-      <c r="G8" s="60" t="inlineStr">
+      <c r="G8" s="59" t="inlineStr">
         <is>
           <t>NYKU0811434</t>
         </is>
       </c>
-      <c r="H8" s="61" t="inlineStr">
+      <c r="H8" s="60" t="inlineStr">
         <is>
           <t>05/03/2022</t>
         </is>
@@ -2456,7 +2446,7 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E9" s="32" t="n">
+      <c r="E9" s="31" t="n">
         <v>3433120</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -2464,12 +2454,12 @@
           <t>ONE</t>
         </is>
       </c>
-      <c r="G9" s="60" t="inlineStr">
+      <c r="G9" s="59" t="inlineStr">
         <is>
           <t>CAIU9538160</t>
         </is>
       </c>
-      <c r="H9" s="61" t="inlineStr">
+      <c r="H9" s="60" t="inlineStr">
         <is>
           <t>05/03/2022</t>
         </is>
@@ -2491,7 +2481,7 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E10" s="32" t="n">
+      <c r="E10" s="31" t="n">
         <v>3414560</v>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -2499,12 +2489,12 @@
           <t>ONE</t>
         </is>
       </c>
-      <c r="G10" s="60" t="inlineStr">
+      <c r="G10" s="59" t="inlineStr">
         <is>
           <t>TEMU7202776</t>
         </is>
       </c>
-      <c r="H10" s="61" t="inlineStr">
+      <c r="H10" s="60" t="inlineStr">
         <is>
           <t>05/03/2022</t>
         </is>
@@ -2526,7 +2516,7 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E11" s="32" t="n">
+      <c r="E11" s="31" t="n">
         <v>3426400</v>
       </c>
       <c r="F11" s="4" t="inlineStr">
@@ -2534,12 +2524,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G11" s="60" t="inlineStr">
+      <c r="G11" s="59" t="inlineStr">
         <is>
           <t>BSIU9250986</t>
         </is>
       </c>
-      <c r="H11" s="62" t="inlineStr">
+      <c r="H11" s="61" t="inlineStr">
         <is>
           <t>Date Error</t>
         </is>
@@ -2561,7 +2551,7 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E12" s="32" t="n">
+      <c r="E12" s="31" t="n">
         <v>3444640</v>
       </c>
       <c r="F12" s="4" t="inlineStr">
@@ -2569,12 +2559,12 @@
           <t>ONE</t>
         </is>
       </c>
-      <c r="G12" s="60" t="inlineStr">
+      <c r="G12" s="59" t="inlineStr">
         <is>
           <t>HLXU8136823</t>
         </is>
       </c>
-      <c r="H12" s="61" t="inlineStr">
+      <c r="H12" s="60" t="inlineStr">
         <is>
           <t>05/03/2022</t>
         </is>
@@ -2596,7 +2586,7 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E13" s="32" t="n">
+      <c r="E13" s="31" t="n">
         <v>1718400</v>
       </c>
       <c r="F13" s="4" t="inlineStr">
@@ -2604,12 +2594,12 @@
           <t>ONE</t>
         </is>
       </c>
-      <c r="G13" s="60" t="inlineStr">
+      <c r="G13" s="59" t="inlineStr">
         <is>
           <t>TCLU1790145</t>
         </is>
       </c>
-      <c r="H13" s="61" t="inlineStr">
+      <c r="H13" s="60" t="inlineStr">
         <is>
           <t>05/14/2022</t>
         </is>
@@ -2631,7 +2621,7 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E14" s="32" t="n">
+      <c r="E14" s="31" t="n">
         <v>3440320</v>
       </c>
       <c r="F14" s="4" t="inlineStr">
@@ -2639,12 +2629,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G14" s="60" t="inlineStr">
+      <c r="G14" s="59" t="inlineStr">
         <is>
           <t>EITU1742327</t>
         </is>
       </c>
-      <c r="H14" s="62" t="inlineStr">
+      <c r="H14" s="61" t="inlineStr">
         <is>
           <t>Date Error</t>
         </is>
@@ -2666,16 +2656,16 @@
           <t>Blank-PSC08</t>
         </is>
       </c>
-      <c r="E15" s="32" t="n">
+      <c r="E15" s="31" t="n">
         <v>3439680</v>
       </c>
       <c r="F15" s="4" t="n"/>
-      <c r="G15" s="60" t="inlineStr">
+      <c r="G15" s="59" t="inlineStr">
         <is>
           <t>TEMU7570886</t>
         </is>
       </c>
-      <c r="H15" s="63" t="n"/>
+      <c r="H15" s="62" t="n"/>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
@@ -2693,7 +2683,7 @@
           <t>Blank-PSC12</t>
         </is>
       </c>
-      <c r="E16" s="32" t="n">
+      <c r="E16" s="31" t="n">
         <v>2792867</v>
       </c>
       <c r="F16" s="4" t="inlineStr">
@@ -2701,12 +2691,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G16" s="60" t="inlineStr">
+      <c r="G16" s="59" t="inlineStr">
         <is>
           <t>TGBU4491000</t>
         </is>
       </c>
-      <c r="H16" s="61" t="inlineStr">
+      <c r="H16" s="60" t="inlineStr">
         <is>
           <t>06/08/2022</t>
         </is>
@@ -2728,7 +2718,7 @@
           <t>Blank-PSC12</t>
         </is>
       </c>
-      <c r="E17" s="32" t="n">
+      <c r="E17" s="31" t="n">
         <v>2782626</v>
       </c>
       <c r="F17" s="4" t="inlineStr">
@@ -2736,12 +2726,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G17" s="60" t="inlineStr">
+      <c r="G17" s="59" t="inlineStr">
         <is>
           <t>EGSU9166935</t>
         </is>
       </c>
-      <c r="H17" s="61" t="inlineStr">
+      <c r="H17" s="60" t="inlineStr">
         <is>
           <t>06/08/2022</t>
         </is>
@@ -2763,7 +2753,7 @@
           <t>Blank-PSC12</t>
         </is>
       </c>
-      <c r="E18" s="32" t="n">
+      <c r="E18" s="31" t="n">
         <v>2788079</v>
       </c>
       <c r="F18" s="4" t="inlineStr">
@@ -2771,12 +2761,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G18" s="60" t="inlineStr">
+      <c r="G18" s="59" t="inlineStr">
         <is>
           <t>BMOU5001758</t>
         </is>
       </c>
-      <c r="H18" s="61" t="inlineStr">
+      <c r="H18" s="60" t="inlineStr">
         <is>
           <t>06/18/2022</t>
         </is>
@@ -2798,7 +2788,7 @@
           <t>Blank-PSC12</t>
         </is>
       </c>
-      <c r="E19" s="32" t="n">
+      <c r="E19" s="31" t="n">
         <v>2786616</v>
       </c>
       <c r="F19" s="4" t="inlineStr">
@@ -2806,12 +2796,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G19" s="60" t="inlineStr">
+      <c r="G19" s="59" t="inlineStr">
         <is>
           <t>EISU9228537</t>
         </is>
       </c>
-      <c r="H19" s="61" t="inlineStr">
+      <c r="H19" s="60" t="inlineStr">
         <is>
           <t>06/18/2022</t>
         </is>
@@ -2833,7 +2823,7 @@
           <t>Blank-PSC12</t>
         </is>
       </c>
-      <c r="E20" s="32" t="n">
+      <c r="E20" s="31" t="n">
         <v>2789542</v>
       </c>
       <c r="F20" s="4" t="inlineStr">
@@ -2841,12 +2831,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G20" s="60" t="inlineStr">
+      <c r="G20" s="59" t="inlineStr">
         <is>
           <t>EGHU9483535</t>
         </is>
       </c>
-      <c r="H20" s="61" t="inlineStr">
+      <c r="H20" s="60" t="inlineStr">
         <is>
           <t>06/18/2022</t>
         </is>
@@ -2868,7 +2858,7 @@
           <t>Blank-PSC12</t>
         </is>
       </c>
-      <c r="E21" s="32" t="n">
+      <c r="E21" s="31" t="n">
         <v>2789808</v>
       </c>
       <c r="F21" s="4" t="inlineStr">
@@ -2876,12 +2866,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G21" s="60" t="inlineStr">
+      <c r="G21" s="59" t="inlineStr">
         <is>
           <t>TGBU6912433</t>
         </is>
       </c>
-      <c r="H21" s="61" t="inlineStr">
+      <c r="H21" s="60" t="inlineStr">
         <is>
           <t>06/18/2022</t>
         </is>
@@ -2903,7 +2893,7 @@
           <t>Blank-PSC12</t>
         </is>
       </c>
-      <c r="E22" s="32" t="n">
+      <c r="E22" s="31" t="n">
         <v>2795261</v>
       </c>
       <c r="F22" s="4" t="inlineStr">
@@ -2911,12 +2901,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G22" s="60" t="inlineStr">
+      <c r="G22" s="59" t="inlineStr">
         <is>
           <t>TCLU4970310</t>
         </is>
       </c>
-      <c r="H22" s="61" t="inlineStr">
+      <c r="H22" s="60" t="inlineStr">
         <is>
           <t>06/23/2022</t>
         </is>
@@ -2933,12 +2923,12 @@
           <t>Hebei Longda Packaging Products Co.,Ltd.</t>
         </is>
       </c>
-      <c r="D23" s="15" t="inlineStr">
+      <c r="D23" s="14" t="inlineStr">
         <is>
           <t>Blank-PSC16</t>
         </is>
       </c>
-      <c r="E23" s="32" t="n">
+      <c r="E23" s="31" t="n">
         <v>2221380</v>
       </c>
       <c r="F23" s="4" t="inlineStr">
@@ -2946,12 +2936,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G23" s="60" t="inlineStr">
+      <c r="G23" s="59" t="inlineStr">
         <is>
           <t>DRYU9132309</t>
         </is>
       </c>
-      <c r="H23" s="62" t="inlineStr">
+      <c r="H23" s="61" t="inlineStr">
         <is>
           <t>Date Error</t>
         </is>
@@ -2973,7 +2963,7 @@
           <t>Blank-PSC16</t>
         </is>
       </c>
-      <c r="E24" s="32" t="n">
+      <c r="E24" s="31" t="n">
         <v>2224320</v>
       </c>
       <c r="F24" s="4" t="inlineStr">
@@ -2981,12 +2971,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G24" s="60" t="inlineStr">
+      <c r="G24" s="59" t="inlineStr">
         <is>
           <t>EITU9071631</t>
         </is>
       </c>
-      <c r="H24" s="61" t="inlineStr">
+      <c r="H24" s="60" t="inlineStr">
         <is>
           <t>06/08/2022</t>
         </is>
@@ -3008,7 +2998,7 @@
           <t>Blank-PSC16</t>
         </is>
       </c>
-      <c r="E25" s="32" t="n">
+      <c r="E25" s="31" t="n">
         <v>2225685</v>
       </c>
       <c r="F25" s="4" t="inlineStr">
@@ -3016,12 +3006,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G25" s="60" t="inlineStr">
+      <c r="G25" s="59" t="inlineStr">
         <is>
           <t>BEAU6310783</t>
         </is>
       </c>
-      <c r="H25" s="61" t="inlineStr">
+      <c r="H25" s="60" t="inlineStr">
         <is>
           <t>06/08/2022</t>
         </is>
@@ -3043,7 +3033,7 @@
           <t>Blank-PSC16</t>
         </is>
       </c>
-      <c r="E26" s="32" t="n">
+      <c r="E26" s="31" t="n">
         <v>2112000</v>
       </c>
       <c r="F26" s="4" t="inlineStr">
@@ -3051,12 +3041,12 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G26" s="60" t="inlineStr">
+      <c r="G26" s="59" t="inlineStr">
         <is>
           <t>UACU5560290</t>
         </is>
       </c>
-      <c r="H26" s="63" t="n"/>
+      <c r="H26" s="62" t="n"/>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
@@ -3074,7 +3064,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E27" s="32" t="n">
+      <c r="E27" s="31" t="n">
         <v>1054.46</v>
       </c>
       <c r="F27" t="inlineStr">
@@ -3082,12 +3072,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G27" s="60" t="inlineStr">
+      <c r="G27" s="59" t="inlineStr">
         <is>
           <t>OOCU7384697</t>
         </is>
       </c>
-      <c r="H27" s="63" t="n"/>
+      <c r="H27" s="62" t="n"/>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
@@ -3105,7 +3095,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E28" s="32" t="n">
+      <c r="E28" s="31" t="n">
         <v>1015.39705</v>
       </c>
       <c r="F28" t="inlineStr">
@@ -3113,12 +3103,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G28" s="60" t="inlineStr">
+      <c r="G28" s="59" t="inlineStr">
         <is>
           <t>OOCU7767335</t>
         </is>
       </c>
-      <c r="H28" s="63" t="n"/>
+      <c r="H28" s="62" t="n"/>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
@@ -3136,7 +3126,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E29" s="32" t="n">
+      <c r="E29" s="31" t="n">
         <v>977.86786</v>
       </c>
       <c r="F29" t="inlineStr">
@@ -3144,12 +3134,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G29" s="60" t="inlineStr">
+      <c r="G29" s="59" t="inlineStr">
         <is>
           <t>CBHU7035084</t>
         </is>
       </c>
-      <c r="H29" s="63" t="n"/>
+      <c r="H29" s="62" t="n"/>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
@@ -3167,7 +3157,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E30" s="32" t="n">
+      <c r="E30" s="31" t="n">
         <v>977.86786</v>
       </c>
       <c r="F30" t="inlineStr">
@@ -3175,12 +3165,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G30" s="60" t="inlineStr">
+      <c r="G30" s="59" t="inlineStr">
         <is>
           <t>TRHU5451388</t>
         </is>
       </c>
-      <c r="H30" s="63" t="n"/>
+      <c r="H30" s="62" t="n"/>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
@@ -3198,7 +3188,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E31" s="32" t="n">
+      <c r="E31" s="31" t="n">
         <v>985.34494</v>
       </c>
       <c r="F31" t="inlineStr">
@@ -3206,12 +3196,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G31" s="60" t="inlineStr">
+      <c r="G31" s="59" t="inlineStr">
         <is>
           <t>TCNU6262554</t>
         </is>
       </c>
-      <c r="H31" s="63" t="n"/>
+      <c r="H31" s="62" t="n"/>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
@@ -3229,7 +3219,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E32" s="32" t="n">
+      <c r="E32" s="31" t="n">
         <v>1049.42735</v>
       </c>
       <c r="F32" t="inlineStr">
@@ -3237,12 +3227,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G32" s="60" t="inlineStr">
+      <c r="G32" s="59" t="inlineStr">
         <is>
           <t>WBPU7009241</t>
         </is>
       </c>
-      <c r="H32" s="63" t="n"/>
+      <c r="H32" s="62" t="n"/>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
@@ -3260,7 +3250,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E33" s="32" t="n">
+      <c r="E33" s="31" t="n">
         <v>1012.85676</v>
       </c>
       <c r="F33" t="inlineStr">
@@ -3268,12 +3258,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G33" s="60" t="inlineStr">
+      <c r="G33" s="59" t="inlineStr">
         <is>
           <t>OOCU7153450</t>
         </is>
       </c>
-      <c r="H33" s="63" t="n"/>
+      <c r="H33" s="62" t="n"/>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
@@ -3291,7 +3281,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E34" s="32" t="n">
+      <c r="E34" s="31" t="n">
         <v>1019.32731</v>
       </c>
       <c r="F34" t="inlineStr">
@@ -3299,12 +3289,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G34" s="60" t="inlineStr">
+      <c r="G34" s="59" t="inlineStr">
         <is>
           <t>TCNU2604638</t>
         </is>
       </c>
-      <c r="H34" s="63" t="n"/>
+      <c r="H34" s="62" t="n"/>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
@@ -3322,7 +3312,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E35" s="32" t="n">
+      <c r="E35" s="31" t="n">
         <v>1036.10281</v>
       </c>
       <c r="F35" t="inlineStr">
@@ -3330,12 +3320,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G35" s="60" t="inlineStr">
+      <c r="G35" s="59" t="inlineStr">
         <is>
           <t>TRHU5505421</t>
         </is>
       </c>
-      <c r="H35" s="63" t="n"/>
+      <c r="H35" s="62" t="n"/>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
@@ -3353,7 +3343,7 @@
           <t>Bottom Master-12.5-2PE-34.5</t>
         </is>
       </c>
-      <c r="E36" s="32" t="n">
+      <c r="E36" s="31" t="n">
         <v>930.9923199999999</v>
       </c>
       <c r="F36" t="inlineStr">
@@ -3361,12 +3351,12 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G36" s="60" t="inlineStr">
+      <c r="G36" s="59" t="inlineStr">
         <is>
           <t>TCNU8395005</t>
         </is>
       </c>
-      <c r="H36" s="63" t="n"/>
+      <c r="H36" s="62" t="n"/>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
@@ -3385,7 +3375,7 @@
         </is>
       </c>
       <c r="F37" s="4" t="n"/>
-      <c r="G37" s="59" t="inlineStr">
+      <c r="G37" s="58" t="inlineStr">
         <is>
           <t>?</t>
         </is>
@@ -3412,12 +3402,12 @@
           <t>ONE</t>
         </is>
       </c>
-      <c r="G38" s="59" t="inlineStr">
+      <c r="G38" s="58" t="inlineStr">
         <is>
           <t xml:space="preserve">TCNU8395005	</t>
         </is>
       </c>
-      <c r="H38" s="61" t="inlineStr">
+      <c r="H38" s="60" t="inlineStr">
         <is>
           <t>05/03/2022</t>
         </is>
@@ -3444,12 +3434,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G39" s="59" t="inlineStr">
+      <c r="G39" s="58" t="inlineStr">
         <is>
           <t xml:space="preserve">TCNU2604638	</t>
         </is>
       </c>
-      <c r="H39" s="63" t="n"/>
+      <c r="H39" s="62" t="n"/>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
@@ -3472,12 +3462,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G40" s="59" t="inlineStr">
+      <c r="G40" s="58" t="inlineStr">
         <is>
           <t xml:space="preserve">CCLU7457222	</t>
         </is>
       </c>
-      <c r="H40" s="63" t="n"/>
+      <c r="H40" s="62" t="n"/>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
@@ -3500,12 +3490,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G41" s="59" t="inlineStr">
+      <c r="G41" s="58" t="inlineStr">
         <is>
           <t xml:space="preserve">TLLU7791403	</t>
         </is>
       </c>
-      <c r="H41" s="63" t="n"/>
+      <c r="H41" s="62" t="n"/>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
@@ -3528,12 +3518,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G42" s="59" t="inlineStr">
+      <c r="G42" s="58" t="inlineStr">
         <is>
           <t xml:space="preserve">CBHU9067521	</t>
         </is>
       </c>
-      <c r="H42" s="63" t="n"/>
+      <c r="H42" s="62" t="n"/>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
@@ -3556,12 +3546,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G43" s="59" t="inlineStr">
+      <c r="G43" s="58" t="inlineStr">
         <is>
           <t xml:space="preserve">TGBU4697877	</t>
         </is>
       </c>
-      <c r="H43" s="63" t="n"/>
+      <c r="H43" s="62" t="n"/>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
@@ -3584,12 +3574,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G44" s="59" t="inlineStr">
+      <c r="G44" s="58" t="inlineStr">
         <is>
           <t xml:space="preserve">TCKU7811696	</t>
         </is>
       </c>
-      <c r="H44" s="63" t="n"/>
+      <c r="H44" s="62" t="n"/>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
@@ -3612,12 +3602,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G45" s="60" t="inlineStr">
+      <c r="G45" s="59" t="inlineStr">
         <is>
           <t>OOCU8195677</t>
         </is>
       </c>
-      <c r="H45" s="63" t="n"/>
+      <c r="H45" s="62" t="n"/>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
@@ -3640,12 +3630,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G46" s="60" t="inlineStr">
+      <c r="G46" s="59" t="inlineStr">
         <is>
           <t>OOCU8287135</t>
         </is>
       </c>
-      <c r="H46" s="63" t="n"/>
+      <c r="H46" s="62" t="n"/>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
@@ -3668,12 +3658,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G47" s="60" t="inlineStr">
+      <c r="G47" s="59" t="inlineStr">
         <is>
           <t>TCLU9733389</t>
         </is>
       </c>
-      <c r="H47" s="63" t="n"/>
+      <c r="H47" s="62" t="n"/>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
@@ -3696,12 +3686,12 @@
           <t>OOCL</t>
         </is>
       </c>
-      <c r="G48" s="60" t="inlineStr">
+      <c r="G48" s="59" t="inlineStr">
         <is>
           <t>CBHU9122824</t>
         </is>
       </c>
-      <c r="H48" s="63" t="n"/>
+      <c r="H48" s="62" t="n"/>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
@@ -3724,12 +3714,12 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G49" s="60" t="inlineStr">
+      <c r="G49" s="59" t="inlineStr">
         <is>
           <t>WHSU5307423</t>
         </is>
       </c>
-      <c r="H49" s="63" t="n"/>
+      <c r="H49" s="62" t="n"/>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
@@ -3752,12 +3742,12 @@
           <t>Cosco</t>
         </is>
       </c>
-      <c r="G50" s="60" t="inlineStr">
+      <c r="G50" s="59" t="inlineStr">
         <is>
           <t>TCNU7749090</t>
         </is>
       </c>
-      <c r="H50" s="61" t="inlineStr">
+      <c r="H50" s="60" t="inlineStr">
         <is>
           <t>07/12/2022</t>
         </is>
@@ -3784,12 +3774,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G51" s="60" t="inlineStr">
+      <c r="G51" s="59" t="inlineStr">
         <is>
           <t>MAGU5417922</t>
         </is>
       </c>
-      <c r="H51" s="61" t="inlineStr">
+      <c r="H51" s="60" t="inlineStr">
         <is>
           <t>06/19/2022</t>
         </is>
@@ -3816,12 +3806,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G52" s="60" t="inlineStr">
+      <c r="G52" s="59" t="inlineStr">
         <is>
           <t>TGBU4523160</t>
         </is>
       </c>
-      <c r="H52" s="61" t="inlineStr">
+      <c r="H52" s="60" t="inlineStr">
         <is>
           <t>07/10/2022</t>
         </is>
@@ -3848,12 +3838,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G53" s="60" t="inlineStr">
+      <c r="G53" s="59" t="inlineStr">
         <is>
           <t>EGHU9084664</t>
         </is>
       </c>
-      <c r="H53" s="61" t="inlineStr">
+      <c r="H53" s="60" t="inlineStr">
         <is>
           <t>06/19/2022</t>
         </is>
@@ -3880,12 +3870,12 @@
           <t>Cosco</t>
         </is>
       </c>
-      <c r="G54" s="60" t="inlineStr">
+      <c r="G54" s="59" t="inlineStr">
         <is>
           <t>CSNU6261402</t>
         </is>
       </c>
-      <c r="H54" s="61" t="inlineStr">
+      <c r="H54" s="60" t="inlineStr">
         <is>
           <t>07/12/2022</t>
         </is>
@@ -3912,12 +3902,12 @@
           <t>Cosco</t>
         </is>
       </c>
-      <c r="G55" s="60" t="inlineStr">
+      <c r="G55" s="59" t="inlineStr">
         <is>
           <t>TGBU8873017</t>
         </is>
       </c>
-      <c r="H55" s="61" t="inlineStr">
+      <c r="H55" s="60" t="inlineStr">
         <is>
           <t>07/12/2022</t>
         </is>
@@ -3944,12 +3934,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G56" s="60" t="inlineStr">
+      <c r="G56" s="59" t="inlineStr">
         <is>
           <t>EMCU8546905</t>
         </is>
       </c>
-      <c r="H56" s="61" t="inlineStr">
+      <c r="H56" s="60" t="inlineStr">
         <is>
           <t>07/10/2022</t>
         </is>
@@ -3976,12 +3966,12 @@
           <t>Evergreen</t>
         </is>
       </c>
-      <c r="G57" s="60" t="inlineStr">
+      <c r="G57" s="59" t="inlineStr">
         <is>
           <t>EMCU8209653</t>
         </is>
       </c>
-      <c r="H57" s="61" t="inlineStr">
+      <c r="H57" s="60" t="inlineStr">
         <is>
           <t>07/10/2022</t>
         </is>
@@ -4008,12 +3998,12 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G58" s="60" t="inlineStr">
+      <c r="G58" s="59" t="inlineStr">
         <is>
           <t>CAIU7487211</t>
         </is>
       </c>
-      <c r="H58" s="63" t="n"/>
+      <c r="H58" s="62" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:H26"/>

--- a/Shipping Excel Sheet.xlsx
+++ b/Shipping Excel Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmattison\Desktop\ecopax-shipping-updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E20609-1B0A-45A9-AE91-E6FBCD64164C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6CD849-0E44-4CD3-83FD-F295BCA7B5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="1280" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="1280" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly needs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="310">
   <si>
     <t>Part Number</t>
   </si>
@@ -348,6 +348,219 @@
     <t>CMAU1999430</t>
   </si>
   <si>
+    <t>TEMU1001882</t>
+  </si>
+  <si>
+    <t>CMAU3124870</t>
+  </si>
+  <si>
+    <t>CMAU1271001</t>
+  </si>
+  <si>
+    <t>CMAU1084274</t>
+  </si>
+  <si>
+    <t>TLLU2340963</t>
+  </si>
+  <si>
+    <t>CMAU0786511</t>
+  </si>
+  <si>
+    <t>NYKU0725022</t>
+  </si>
+  <si>
+    <t>GCXU5243011</t>
+  </si>
+  <si>
+    <t>KSSU1004095</t>
+  </si>
+  <si>
+    <t>KKFU8086626</t>
+  </si>
+  <si>
+    <t>TGHU9843127</t>
+  </si>
+  <si>
+    <t>BMOU2183772</t>
+  </si>
+  <si>
+    <t>OOLU9835369</t>
+  </si>
+  <si>
+    <t>OOLU8976022</t>
+  </si>
+  <si>
+    <t>TGHU6504140</t>
+  </si>
+  <si>
+    <t>ONEU0006854</t>
+  </si>
+  <si>
+    <t>FANU1557450</t>
+  </si>
+  <si>
+    <t>GATU8795242</t>
+  </si>
+  <si>
+    <t>TRHU4017274</t>
+  </si>
+  <si>
+    <t>BMOU2182267</t>
+  </si>
+  <si>
+    <t>TGHU9749002</t>
+  </si>
+  <si>
+    <t>TEMU2454266</t>
+  </si>
+  <si>
+    <t>CMAU0615186</t>
+  </si>
+  <si>
+    <t>CMAU1671749</t>
+  </si>
+  <si>
+    <t>FWRU0143517</t>
+  </si>
+  <si>
+    <t>TCLU9637873</t>
+  </si>
+  <si>
+    <t>TRHU6017442</t>
+  </si>
+  <si>
+    <t>FCIU9357391</t>
+  </si>
+  <si>
+    <t>CMAU7146898</t>
+  </si>
+  <si>
+    <t>CMAU5249433</t>
+  </si>
+  <si>
+    <t>CMAU5905357</t>
+  </si>
+  <si>
+    <t>TGHU3892802</t>
+  </si>
+  <si>
+    <t>TGHU0157086</t>
+  </si>
+  <si>
+    <t>TEMU7814004</t>
+  </si>
+  <si>
+    <t>APZU3448600</t>
+  </si>
+  <si>
+    <t>APZU3431438</t>
+  </si>
+  <si>
+    <t>MAGU5474162</t>
+  </si>
+  <si>
+    <t>TRLU6706305</t>
+  </si>
+  <si>
+    <t>FCIU8749361</t>
+  </si>
+  <si>
+    <t>CMAU5084396</t>
+  </si>
+  <si>
+    <t>CMAU0594020</t>
+  </si>
+  <si>
+    <t>CMAU1317484</t>
+  </si>
+  <si>
+    <t>TCLU9647362</t>
+  </si>
+  <si>
+    <t>TRHU8141283</t>
+  </si>
+  <si>
+    <t>TCLU8644395</t>
+  </si>
+  <si>
+    <t>JXLU7831639</t>
+  </si>
+  <si>
+    <t>CMAU6652119</t>
+  </si>
+  <si>
+    <t>TXGU6695032</t>
+  </si>
+  <si>
+    <t>TCNU4397838</t>
+  </si>
+  <si>
+    <t>FCIU8788223</t>
+  </si>
+  <si>
+    <t>CMAU8671334</t>
+  </si>
+  <si>
+    <t>APHU7074378</t>
+  </si>
+  <si>
+    <t>TCNU4690511</t>
+  </si>
+  <si>
+    <t>CMAU4822556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMAU6345370 </t>
+  </si>
+  <si>
+    <t>CMAU9164252</t>
+  </si>
+  <si>
+    <t>CMAU4361897</t>
+  </si>
+  <si>
+    <t>CMAU4630105</t>
+  </si>
+  <si>
+    <t>FSCU7131151</t>
+  </si>
+  <si>
+    <t>APHU6321093</t>
+  </si>
+  <si>
+    <t>CMAU0260851</t>
+  </si>
+  <si>
+    <t>TGBU4169186</t>
+  </si>
+  <si>
+    <t>APHU7270597</t>
+  </si>
+  <si>
+    <t>TCNU1036512</t>
+  </si>
+  <si>
+    <t>TCLU8915814</t>
+  </si>
+  <si>
+    <t>APHU6367432</t>
+  </si>
+  <si>
+    <t>BEAU4009390</t>
+  </si>
+  <si>
+    <t>BEAU4125298</t>
+  </si>
+  <si>
+    <t>BEAU5955432</t>
+  </si>
+  <si>
+    <t>CAIU8925396</t>
+  </si>
+  <si>
+    <t>CAIU9257178</t>
+  </si>
+  <si>
     <t>2022-00-30493</t>
   </si>
   <si>
@@ -666,9 +879,6 @@
     <t>TGBU4523160</t>
   </si>
   <si>
-    <t>07/10/2022</t>
-  </si>
-  <si>
     <t>2022-00-33518</t>
   </si>
   <si>
@@ -708,22 +918,16 @@
     <t>CAIU7487211</t>
   </si>
   <si>
-    <t>CMAU4630105</t>
-  </si>
-  <si>
     <t>DFSU6935165</t>
   </si>
   <si>
+    <t>07/22/2022</t>
+  </si>
+  <si>
     <t>ECMU9870539</t>
   </si>
   <si>
-    <t>TCNU4397838</t>
-  </si>
-  <si>
-    <t>TXGU6695032</t>
-  </si>
-  <si>
-    <t>CMAU6652119</t>
+    <t>06/21/2022</t>
   </si>
   <si>
     <t>FFAU4290493</t>
@@ -735,22 +939,34 @@
     <t>GESU5876310</t>
   </si>
   <si>
+    <t>06/30/2022</t>
+  </si>
+  <si>
     <t>CMAU5726794</t>
   </si>
   <si>
+    <t>07/04/2022</t>
+  </si>
+  <si>
     <t>CMAU5875885</t>
   </si>
   <si>
     <t>TCKU6228690</t>
   </si>
   <si>
-    <t>CMAU4822556</t>
-  </si>
-  <si>
-    <t>FSCU7131151</t>
-  </si>
-  <si>
-    <t>CMAU8671334</t>
+    <t>07/09/2022</t>
+  </si>
+  <si>
+    <t>TCKU6331265</t>
+  </si>
+  <si>
+    <t>TCNU2838050</t>
+  </si>
+  <si>
+    <t>TEMU6960719</t>
+  </si>
+  <si>
+    <t>TLLU4514961</t>
   </si>
 </sst>
 </file>
@@ -889,7 +1105,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,6 +1152,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1EB9C"/>
+        <bgColor rgb="FFF1EB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7F7F"/>
+        <bgColor rgb="FFFF7F7F"/>
       </patternFill>
     </fill>
   </fills>
@@ -1024,7 +1252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1200,6 +1428,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1568,7 +1800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -1927,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q113"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,7 +2171,7 @@
     <col min="3" max="3" width="38.42578125" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.85546875" style="32" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="55" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="29" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" style="29" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" style="29" customWidth="1"/>
@@ -2504,6 +2736,606 @@
         <v>102</v>
       </c>
       <c r="G38" s="62"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>100</v>
+      </c>
+      <c r="F62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>100</v>
+      </c>
+      <c r="F63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>100</v>
+      </c>
+      <c r="F64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>100</v>
+      </c>
+      <c r="F65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>100</v>
+      </c>
+      <c r="F66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>100</v>
+      </c>
+      <c r="F68" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>100</v>
+      </c>
+      <c r="F69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>100</v>
+      </c>
+      <c r="F70" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>100</v>
+      </c>
+      <c r="F71" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>95</v>
+      </c>
+      <c r="F72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>100</v>
+      </c>
+      <c r="F73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>100</v>
+      </c>
+      <c r="F74" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>100</v>
+      </c>
+      <c r="F75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>100</v>
+      </c>
+      <c r="F76" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>100</v>
+      </c>
+      <c r="F77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>100</v>
+      </c>
+      <c r="F78" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>100</v>
+      </c>
+      <c r="F79" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>100</v>
+      </c>
+      <c r="F80" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>100</v>
+      </c>
+      <c r="F81" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>100</v>
+      </c>
+      <c r="F82" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>100</v>
+      </c>
+      <c r="F83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>100</v>
+      </c>
+      <c r="F84" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>100</v>
+      </c>
+      <c r="F85" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>100</v>
+      </c>
+      <c r="F86" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>100</v>
+      </c>
+      <c r="F87" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>100</v>
+      </c>
+      <c r="F88" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>100</v>
+      </c>
+      <c r="F89" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>100</v>
+      </c>
+      <c r="F90" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>100</v>
+      </c>
+      <c r="F91" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>100</v>
+      </c>
+      <c r="F92" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>100</v>
+      </c>
+      <c r="F93" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>100</v>
+      </c>
+      <c r="F94" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>100</v>
+      </c>
+      <c r="F95" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>100</v>
+      </c>
+      <c r="F96" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>100</v>
+      </c>
+      <c r="F97" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>100</v>
+      </c>
+      <c r="F98" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>100</v>
+      </c>
+      <c r="F99" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>100</v>
+      </c>
+      <c r="F100" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>100</v>
+      </c>
+      <c r="F101" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>100</v>
+      </c>
+      <c r="F102" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>100</v>
+      </c>
+      <c r="F103" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>100</v>
+      </c>
+      <c r="F104" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>100</v>
+      </c>
+      <c r="F105" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>100</v>
+      </c>
+      <c r="F106" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>100</v>
+      </c>
+      <c r="F107" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>100</v>
+      </c>
+      <c r="F108" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>100</v>
+      </c>
+      <c r="F109" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>100</v>
+      </c>
+      <c r="F110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F111" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>100</v>
+      </c>
+      <c r="F112" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>100</v>
+      </c>
+      <c r="F113" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F32 F27">
@@ -2527,7 +3359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:H77"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
+    <sheetView topLeftCell="D70" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -2555,7 +3387,7 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -2570,10 +3402,10 @@
         <v>39</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>44</v>
+        <v>175</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -2619,12 +3451,12 @@
         <v>35</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -2639,15 +3471,15 @@
         <v>39</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="71" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -2662,7 +3494,7 @@
         <v>39</v>
       </c>
       <c r="G6" s="59" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="H6" s="60" t="s">
         <v>50</v>
@@ -2690,7 +3522,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -2705,15 +3537,15 @@
         <v>34</v>
       </c>
       <c r="G8" s="59" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="H8" s="60" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -2728,15 +3560,15 @@
         <v>34</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="H9" s="60" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -2751,15 +3583,15 @@
         <v>34</v>
       </c>
       <c r="G10" s="59" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="H10" s="60" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -2774,15 +3606,15 @@
         <v>39</v>
       </c>
       <c r="G11" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="71" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -2797,10 +3629,10 @@
         <v>34</v>
       </c>
       <c r="G12" s="59" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -2823,12 +3655,12 @@
         <v>37</v>
       </c>
       <c r="H13" s="60" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -2843,15 +3675,15 @@
         <v>39</v>
       </c>
       <c r="G14" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="H14" s="71" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -2864,13 +3696,13 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="62"/>
+        <v>195</v>
+      </c>
+      <c r="H15" s="72"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -2885,15 +3717,15 @@
         <v>39</v>
       </c>
       <c r="G16" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>44</v>
+        <v>197</v>
+      </c>
+      <c r="H16" s="71" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -2908,15 +3740,15 @@
         <v>39</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17" s="60" t="s">
-        <v>44</v>
+        <v>199</v>
+      </c>
+      <c r="H17" s="71" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2931,7 +3763,7 @@
         <v>39</v>
       </c>
       <c r="G18" s="59" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="H18" s="60" t="s">
         <v>63</v>
@@ -2939,7 +3771,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2954,7 +3786,7 @@
         <v>39</v>
       </c>
       <c r="G19" s="59" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="H19" s="60" t="s">
         <v>63</v>
@@ -2962,7 +3794,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2977,7 +3809,7 @@
         <v>39</v>
       </c>
       <c r="G20" s="59" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="H20" s="60" t="s">
         <v>63</v>
@@ -2985,7 +3817,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -3000,7 +3832,7 @@
         <v>39</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="H21" s="60" t="s">
         <v>63</v>
@@ -3008,7 +3840,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -3023,7 +3855,7 @@
         <v>39</v>
       </c>
       <c r="G22" s="59" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="H22" s="60" t="s">
         <v>47</v>
@@ -3031,7 +3863,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -3046,15 +3878,15 @@
         <v>39</v>
       </c>
       <c r="G23" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="H23" s="71" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -3069,15 +3901,15 @@
         <v>39</v>
       </c>
       <c r="G24" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="H24" s="60" t="s">
-        <v>44</v>
+        <v>213</v>
+      </c>
+      <c r="H24" s="71" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -3092,15 +3924,15 @@
         <v>39</v>
       </c>
       <c r="G25" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>44</v>
+        <v>215</v>
+      </c>
+      <c r="H25" s="71" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -3115,19 +3947,19 @@
         <v>54</v>
       </c>
       <c r="G26" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="62"/>
+        <v>217</v>
+      </c>
+      <c r="H26" s="72"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
         <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="E27" s="31">
         <v>1054.46</v>
@@ -3136,19 +3968,19 @@
         <v>81</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="H27" s="62"/>
+        <v>220</v>
+      </c>
+      <c r="H27" s="72"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="C28" t="s">
         <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="E28" s="31">
         <v>1015.39705</v>
@@ -3157,19 +3989,19 @@
         <v>81</v>
       </c>
       <c r="G28" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="H28" s="62"/>
+        <v>222</v>
+      </c>
+      <c r="H28" s="72"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="C29" t="s">
         <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="E29" s="31">
         <v>977.86785999999995</v>
@@ -3178,19 +4010,19 @@
         <v>81</v>
       </c>
       <c r="G29" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="H29" s="62"/>
+        <v>224</v>
+      </c>
+      <c r="H29" s="72"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="C30" t="s">
         <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="E30" s="31">
         <v>977.86785999999995</v>
@@ -3199,19 +4031,19 @@
         <v>81</v>
       </c>
       <c r="G30" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="H30" s="62"/>
+        <v>226</v>
+      </c>
+      <c r="H30" s="72"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="C31" t="s">
         <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="E31" s="31">
         <v>985.34493999999995</v>
@@ -3220,19 +4052,19 @@
         <v>81</v>
       </c>
       <c r="G31" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="H31" s="62"/>
+        <v>228</v>
+      </c>
+      <c r="H31" s="72"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>158</v>
+        <v>229</v>
       </c>
       <c r="C32" t="s">
         <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="E32" s="31">
         <v>1049.4273499999999</v>
@@ -3241,19 +4073,19 @@
         <v>81</v>
       </c>
       <c r="G32" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="H32" s="62"/>
+        <v>230</v>
+      </c>
+      <c r="H32" s="72"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="C33" t="s">
         <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="E33" s="31">
         <v>1012.85676</v>
@@ -3262,19 +4094,19 @@
         <v>81</v>
       </c>
       <c r="G33" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="H33" s="62"/>
+        <v>232</v>
+      </c>
+      <c r="H33" s="72"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="C34" t="s">
         <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="E34" s="31">
         <v>1019.32731</v>
@@ -3283,19 +4115,19 @@
         <v>81</v>
       </c>
       <c r="G34" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="H34" s="62"/>
+        <v>234</v>
+      </c>
+      <c r="H34" s="72"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="C35" t="s">
         <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="E35" s="31">
         <v>1036.1028100000001</v>
@@ -3304,19 +4136,19 @@
         <v>81</v>
       </c>
       <c r="G35" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="H35" s="62"/>
+        <v>236</v>
+      </c>
+      <c r="H35" s="72"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>166</v>
+        <v>237</v>
       </c>
       <c r="C36" t="s">
         <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="E36" s="31">
         <v>930.99231999999995</v>
@@ -3325,19 +4157,19 @@
         <v>54</v>
       </c>
       <c r="G36" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="H36" s="62"/>
+        <v>238</v>
+      </c>
+      <c r="H36" s="72"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="58" t="s">
@@ -3346,113 +4178,113 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>166</v>
+        <v>237</v>
       </c>
       <c r="C38" t="s">
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G38" s="58" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="H38" s="60" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="F39" t="s">
         <v>81</v>
       </c>
       <c r="G39" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="H39" s="62"/>
+        <v>244</v>
+      </c>
+      <c r="H39" s="72"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="C40" t="s">
         <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="F40" t="s">
         <v>81</v>
       </c>
       <c r="G40" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="H40" s="62"/>
+        <v>247</v>
+      </c>
+      <c r="H40" s="72"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="C41" t="s">
         <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="F41" t="s">
         <v>81</v>
       </c>
       <c r="G41" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="H41" s="62"/>
+        <v>250</v>
+      </c>
+      <c r="H41" s="72"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="C42" t="s">
         <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="F42" t="s">
         <v>81</v>
       </c>
       <c r="G42" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="H42" s="62"/>
+        <v>253</v>
+      </c>
+      <c r="H42" s="72"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="C43" t="s">
         <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="F43" t="s">
         <v>81</v>
       </c>
       <c r="G43" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="H43" s="62"/>
+        <v>256</v>
+      </c>
+      <c r="H43" s="72"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -3468,284 +4300,287 @@
         <v>81</v>
       </c>
       <c r="G44" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="H44" s="62"/>
+        <v>257</v>
+      </c>
+      <c r="H44" s="72"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="F45" t="s">
         <v>81</v>
       </c>
       <c r="G45" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="H45" s="62"/>
+        <v>260</v>
+      </c>
+      <c r="H45" s="72"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="C46" t="s">
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="F46" t="s">
         <v>81</v>
       </c>
       <c r="G46" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="H46" s="62"/>
+        <v>262</v>
+      </c>
+      <c r="H46" s="72"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="C47" t="s">
         <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="F47" t="s">
         <v>81</v>
       </c>
       <c r="G47" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="H47" s="62"/>
+        <v>264</v>
+      </c>
+      <c r="H47" s="72"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="C48" t="s">
         <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="F48" t="s">
         <v>81</v>
       </c>
       <c r="G48" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="H48" s="62"/>
+        <v>266</v>
+      </c>
+      <c r="H48" s="72"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>196</v>
+        <v>267</v>
       </c>
       <c r="C49" t="s">
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="F49" t="s">
         <v>54</v>
       </c>
       <c r="G49" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="H49" s="62"/>
+        <v>268</v>
+      </c>
+      <c r="H49" s="72"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="C50" t="s">
         <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="F50" t="s">
         <v>30</v>
       </c>
       <c r="G50" s="59" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="H50" s="60" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="F51" t="s">
         <v>39</v>
       </c>
       <c r="G51" s="59" t="s">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="H51" s="60" t="s">
-        <v>205</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="C52" t="s">
         <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="F52" t="s">
         <v>39</v>
       </c>
       <c r="G52" s="59" t="s">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="H52" s="60" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="C53" t="s">
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="F53" t="s">
         <v>39</v>
       </c>
       <c r="G53" s="59" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="H53" s="60" t="s">
-        <v>205</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>212</v>
+        <v>282</v>
       </c>
       <c r="C54" t="s">
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="F54" t="s">
         <v>30</v>
       </c>
       <c r="G54" s="59" t="s">
-        <v>213</v>
+        <v>283</v>
       </c>
       <c r="H54" s="60" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="C55" t="s">
         <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="F55" t="s">
         <v>30</v>
       </c>
       <c r="G55" s="59" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
       <c r="H55" s="60" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c r="C56" t="s">
         <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="F56" t="s">
         <v>39</v>
       </c>
       <c r="G56" s="59" t="s">
-        <v>217</v>
+        <v>287</v>
       </c>
       <c r="H56" s="60" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>218</v>
+        <v>288</v>
       </c>
       <c r="C57" t="s">
         <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="F57" t="s">
         <v>39</v>
       </c>
       <c r="G57" s="59" t="s">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c r="H57" s="60" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="C58" t="s">
         <v>52</v>
       </c>
       <c r="D58" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="F58" t="s">
         <v>54</v>
       </c>
       <c r="G58" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="H58" s="62"/>
+        <v>292</v>
+      </c>
+      <c r="H58" s="72"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F59" s="67" t="s">
         <v>100</v>
       </c>
       <c r="G59" s="68" t="s">
-        <v>223</v>
+        <v>160</v>
+      </c>
+      <c r="H59" s="60" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -3753,7 +4588,10 @@
         <v>100</v>
       </c>
       <c r="G60" s="69" t="s">
-        <v>224</v>
+        <v>293</v>
+      </c>
+      <c r="H60" s="60" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -3761,7 +4599,10 @@
         <v>100</v>
       </c>
       <c r="G61" s="69" t="s">
-        <v>225</v>
+        <v>295</v>
+      </c>
+      <c r="H61" s="60" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -3769,7 +4610,10 @@
         <v>100</v>
       </c>
       <c r="G62" s="69" t="s">
-        <v>226</v>
+        <v>151</v>
+      </c>
+      <c r="H62" s="60" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -3777,7 +4621,10 @@
         <v>100</v>
       </c>
       <c r="G63" s="69" t="s">
-        <v>227</v>
+        <v>150</v>
+      </c>
+      <c r="H63" s="60" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
@@ -3785,111 +4632,141 @@
         <v>100</v>
       </c>
       <c r="G64" s="69" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="H64" s="60" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F65" s="67" t="s">
         <v>100</v>
       </c>
       <c r="G65" s="69" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="H65" s="60" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F66" s="67" t="s">
         <v>100</v>
       </c>
       <c r="G66" s="69" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="H66" s="60" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F67" s="67" t="s">
         <v>100</v>
       </c>
       <c r="G67" s="70" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="H67" s="60" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F68" s="67" t="s">
         <v>100</v>
       </c>
       <c r="G68" s="69" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="H68" s="60" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F69" s="67" t="s">
         <v>100</v>
       </c>
       <c r="G69" s="69" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="H69" s="60" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F70" s="67" t="s">
         <v>100</v>
       </c>
       <c r="G70" s="69" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="H70" s="60" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F71" s="67" t="s">
         <v>100</v>
       </c>
       <c r="G71" s="69" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="H71" s="60" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F72" s="67" t="s">
         <v>100</v>
       </c>
       <c r="G72" s="69" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="H72" s="60" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F73" s="67" t="s">
         <v>100</v>
       </c>
       <c r="G73" s="69" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F74" s="67" t="s">
         <v>100</v>
       </c>
       <c r="G74" s="69" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="H74" s="60" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F75" s="67" t="s">
         <v>100</v>
       </c>
       <c r="G75" s="69" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="76" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F76" s="67" t="s">
         <v>100</v>
       </c>
       <c r="G76" s="69" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="77" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F77" s="67" t="s">
         <v>100</v>
       </c>
       <c r="G77" s="69" t="s">
-        <v>234</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/Shipping Excel Sheet.xlsx
+++ b/Shipping Excel Sheet.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmattison\Desktop\ecopax-shipping-updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6CD849-0E44-4CD3-83FD-F295BCA7B5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54329BC5-76CD-41C3-AB17-1459F0A6C1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="1280" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Monthly needs" sheetId="1" r:id="rId1"/>
-    <sheet name="custom" sheetId="2" r:id="rId2"/>
-    <sheet name="Rest" sheetId="3" r:id="rId3"/>
+    <sheet name="custom" sheetId="2" r:id="rId1"/>
+    <sheet name="Rest" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Rest!$B$1:$H$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Rest!$B$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,83 +36,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="310">
-  <si>
-    <t>Part Number</t>
-  </si>
-  <si>
-    <t>Monthly Usage</t>
-  </si>
-  <si>
-    <t>Convert to Ton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">containers </t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Wkly</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="292">
   <si>
     <t>PPEY Blank-PSC07</t>
   </si>
   <si>
-    <t>Every week</t>
-  </si>
-  <si>
     <t>Blank-PSC08</t>
   </si>
   <si>
-    <t xml:space="preserve">Three weeks </t>
-  </si>
-  <si>
     <t>PPEY Blank-PSC16</t>
   </si>
   <si>
     <t>Blank-PSC12</t>
   </si>
   <si>
-    <t>Once</t>
-  </si>
-  <si>
     <t>Blank-PSC07</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>ABEE Blank-PSC08</t>
   </si>
   <si>
-    <t xml:space="preserve">one </t>
-  </si>
-  <si>
     <t>Blank-PSC16</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Open order qty</t>
-  </si>
-  <si>
-    <t> open orders can cover how many months </t>
-  </si>
-  <si>
     <t>Carrier</t>
   </si>
   <si>
@@ -132,9 +77,6 @@
     <t>Cosco</t>
   </si>
   <si>
-    <t>SEGU5093860</t>
-  </si>
-  <si>
     <t>arrived</t>
   </si>
   <si>
@@ -967,13 +909,16 @@
   </si>
   <si>
     <t>TLLU4514961</t>
+  </si>
+  <si>
+    <t>SEGU5093860/kdsfhsj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,30 +960,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="11"/>
@@ -1050,34 +971,6 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1167,7 +1060,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1175,84 +1068,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1278,39 +1099,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1322,60 +1110,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1416,16 +1152,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1797,423 +1533,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="17">
-        <v>16279680</v>
-      </c>
-      <c r="D3" s="35">
-        <v>74</v>
-      </c>
-      <c r="E3" s="41">
-        <f t="shared" ref="E3:E10" si="0">D3/23</f>
-        <v>3.2173913043478262</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="40">
-        <f t="shared" ref="G3:G9" si="1">E3/4</f>
-        <v>0.80434782608695654</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="19">
-        <v>9712800</v>
-      </c>
-      <c r="D4" s="36">
-        <v>63</v>
-      </c>
-      <c r="E4" s="42">
-        <f t="shared" si="0"/>
-        <v>2.7391304347826089</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="39">
-        <f t="shared" si="1"/>
-        <v>0.68478260869565222</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="19">
-        <v>6000000</v>
-      </c>
-      <c r="D5" s="36">
-        <v>60</v>
-      </c>
-      <c r="E5" s="44">
-        <f t="shared" si="0"/>
-        <v>2.6086956521739131</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="39">
-        <f t="shared" si="1"/>
-        <v>0.65217391304347827</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="19">
-        <v>3251000</v>
-      </c>
-      <c r="D6" s="36">
-        <v>23</v>
-      </c>
-      <c r="E6" s="43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="39">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="19">
-        <v>3962000</v>
-      </c>
-      <c r="D7" s="36">
-        <v>18</v>
-      </c>
-      <c r="E7" s="41">
-        <f t="shared" si="0"/>
-        <v>0.78260869565217395</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="40">
-        <f t="shared" si="1"/>
-        <v>0.19565217391304349</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="19">
-        <v>2640000</v>
-      </c>
-      <c r="D8" s="36">
-        <v>17</v>
-      </c>
-      <c r="E8" s="44">
-        <f t="shared" si="0"/>
-        <v>0.73913043478260865</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="39">
-        <f t="shared" si="1"/>
-        <v>0.18478260869565216</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="19">
-        <v>627500</v>
-      </c>
-      <c r="D9" s="36">
-        <v>6</v>
-      </c>
-      <c r="E9" s="42">
-        <f t="shared" si="0"/>
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="39">
-        <f t="shared" si="1"/>
-        <v>6.5217391304347824E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="19">
-        <v>42472980</v>
-      </c>
-      <c r="D10" s="36">
-        <v>261</v>
-      </c>
-      <c r="E10" s="38">
-        <f t="shared" si="0"/>
-        <v>11.347826086956522</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:11" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="45"/>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="24">
-        <v>627500</v>
-      </c>
-      <c r="D13" s="24">
-        <v>10989011</v>
-      </c>
-      <c r="E13" s="25">
-        <v>18</v>
-      </c>
-      <c r="F13" s="46"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="24">
-        <v>3251000</v>
-      </c>
-      <c r="D14" s="24">
-        <v>22188603</v>
-      </c>
-      <c r="E14" s="25">
-        <v>7</v>
-      </c>
-      <c r="F14" s="46"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="24">
-        <v>6000000</v>
-      </c>
-      <c r="D15" s="24">
-        <v>30769231</v>
-      </c>
-      <c r="E15" s="25">
-        <v>5</v>
-      </c>
-      <c r="F15" s="46"/>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="24">
-        <v>2640000</v>
-      </c>
-      <c r="D16" s="24">
-        <v>10216718</v>
-      </c>
-      <c r="E16" s="25">
-        <v>4</v>
-      </c>
-      <c r="F16" s="46"/>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="24">
-        <v>16279680</v>
-      </c>
-      <c r="D17" s="24">
-        <v>43516484</v>
-      </c>
-      <c r="E17" s="25">
-        <v>3</v>
-      </c>
-      <c r="F17" s="46"/>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="24">
-        <v>3962000</v>
-      </c>
-      <c r="D18" s="24">
-        <v>9670330</v>
-      </c>
-      <c r="E18" s="25">
-        <v>2</v>
-      </c>
-      <c r="F18" s="46"/>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="24">
-        <v>9712800</v>
-      </c>
-      <c r="D19" s="24">
-        <v>17027864</v>
-      </c>
-      <c r="E19" s="25">
-        <v>2</v>
-      </c>
-      <c r="F19" s="46"/>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="24">
-        <v>42472980</v>
-      </c>
-      <c r="D20" s="24">
-        <v>144378240</v>
-      </c>
-      <c r="E20" s="25">
-        <v>3</v>
-      </c>
-      <c r="F20" s="46"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q113"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="55" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="29" customWidth="1"/>
-    <col min="10" max="11" width="15.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="17.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="16" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="26" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="18" customWidth="1"/>
+    <col min="10" max="11" width="15.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="17.28515625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E1" s="55" t="s">
-        <v>25</v>
+      <c r="E1" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
-        <v>10</v>
+      <c r="B2" s="22" t="s">
+        <v>0</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D3" s="7">
         <v>4740799</v>
       </c>
-      <c r="E3" s="53" t="s">
-        <v>30</v>
+      <c r="E3" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="63" t="s">
-        <v>32</v>
+        <v>291</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
@@ -2221,22 +1596,22 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
         <v>3311203</v>
       </c>
-      <c r="E4" s="53" t="s">
-        <v>34</v>
+      <c r="E4" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="63" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="6"/>
@@ -2244,22 +1619,22 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
         <v>2634380</v>
       </c>
-      <c r="E5" s="53" t="s">
-        <v>34</v>
+      <c r="E5" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
@@ -2267,22 +1642,22 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7">
         <v>4793964</v>
       </c>
-      <c r="E6" s="54" t="s">
-        <v>39</v>
+      <c r="E6" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="64" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>22</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="6"/>
@@ -2290,22 +1665,22 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
         <v>4777689</v>
       </c>
-      <c r="E7" s="54" t="s">
-        <v>39</v>
+      <c r="E7" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="65" t="s">
-        <v>44</v>
+        <v>24</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>25</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="6"/>
@@ -2313,22 +1688,22 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
         <v>4783765</v>
       </c>
-      <c r="E8" s="54" t="s">
-        <v>39</v>
+      <c r="E8" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="65" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>28</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
@@ -2336,1005 +1711,1005 @@
     <row r="9" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D9" s="7">
         <v>237398</v>
       </c>
-      <c r="E9" s="54" t="s">
-        <v>39</v>
+      <c r="E9" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>31</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>54</v>
+        <v>34</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="62"/>
+        <v>36</v>
+      </c>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>54</v>
+        <v>38</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="62"/>
+        <v>39</v>
+      </c>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>54</v>
+        <v>34</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="62"/>
+        <v>41</v>
+      </c>
+      <c r="G12" s="33"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="K14" s="30"/>
+      <c r="K14" s="19"/>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="33" t="s">
-        <v>14</v>
+      <c r="B15" s="22" t="s">
+        <v>2</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="56"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
-      <c r="K15" s="30"/>
+      <c r="K15" s="19"/>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="10" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D16" s="9">
         <v>2227890</v>
       </c>
-      <c r="E16" s="54" t="s">
-        <v>39</v>
+      <c r="E16" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="30"/>
+        <v>43</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="19"/>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="10" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D17" s="9">
         <v>2224950</v>
       </c>
-      <c r="E17" s="54" t="s">
-        <v>39</v>
+      <c r="E17" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="60" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="57"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="57"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="57"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="s">
-        <v>19</v>
+      <c r="B21" s="23" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="57"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D22" s="4">
         <v>3520000</v>
       </c>
-      <c r="E22" s="55" t="s">
-        <v>39</v>
+      <c r="E22" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D23" s="4">
         <v>3462720</v>
       </c>
-      <c r="E23" s="55" t="s">
-        <v>39</v>
+      <c r="E23" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="61" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="57"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="11"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="34" t="s">
-        <v>70</v>
+      <c r="B26" s="23" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>73</v>
+        <v>33</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="60" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>73</v>
+        <v>33</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>78</v>
+        <v>58</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="55" t="s">
-        <v>81</v>
+        <v>33</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="62"/>
+        <v>63</v>
+      </c>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>81</v>
+        <v>33</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="62"/>
+        <v>66</v>
+      </c>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="55" t="s">
-        <v>81</v>
+        <v>33</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="62"/>
+        <v>69</v>
+      </c>
+      <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="55" t="s">
-        <v>81</v>
+        <v>33</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" s="62"/>
+        <v>72</v>
+      </c>
+      <c r="G32" s="33"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="55" t="s">
-        <v>81</v>
+        <v>33</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="62"/>
+        <v>75</v>
+      </c>
+      <c r="G33" s="33"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" s="66" t="s">
-        <v>32</v>
+        <v>77</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s">
-        <v>97</v>
-      </c>
-      <c r="G35" s="66" t="s">
-        <v>32</v>
+        <v>78</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G36" s="66" t="s">
-        <v>32</v>
+        <v>80</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F37" t="s">
-        <v>101</v>
-      </c>
-      <c r="G37" s="60" t="s">
-        <v>63</v>
+        <v>82</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G38" s="62"/>
+        <v>83</v>
+      </c>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F49" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F50" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F53" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F55" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F56" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F58" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F60" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F61" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F62" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F63" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F65" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F67" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F69" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F71" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F73" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F75" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F76" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F77" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F78" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F79" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="80" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F80" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F81" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
     </row>
     <row r="82" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F83" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F84" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F85" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F86" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F87" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F88" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F89" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F90" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F91" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F92" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F93" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F94" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F95" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F96" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F97" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F98" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F99" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F100" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F101" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F102" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F103" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F104" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F105" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F106" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F107" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F108" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F109" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F110" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F111" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F112" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F113" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3355,1418 +2730,1418 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:H77"/>
   <sheetViews>
-    <sheetView topLeftCell="D70" workbookViewId="0">
+    <sheetView topLeftCell="D28" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="59" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="59" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="31">
+        <v>4</v>
+      </c>
+      <c r="E2" s="20">
         <v>4756640</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="H2" s="71" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="31">
+        <v>4</v>
+      </c>
+      <c r="E3" s="20">
         <v>3348527</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="31">
+        <v>4</v>
+      </c>
+      <c r="E4" s="20">
         <v>1402037</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>176</v>
+        <v>15</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="31">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20">
         <v>3423840</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="71" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="31">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20">
         <v>3457760</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="31">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20">
         <v>950080</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>49</v>
+        <v>20</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="31">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20">
         <v>3436640</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>176</v>
+        <v>15</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="31">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20">
         <v>3433120</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>176</v>
+        <v>15</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="31">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20">
         <v>3414560</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="H10" s="60" t="s">
-        <v>176</v>
+        <v>15</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="31">
+        <v>1</v>
+      </c>
+      <c r="E11" s="20">
         <v>3426400</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="H11" s="71" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="31">
+        <v>1</v>
+      </c>
+      <c r="E12" s="20">
         <v>3444640</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>191</v>
+        <v>15</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="31">
+        <v>1</v>
+      </c>
+      <c r="E13" s="20">
         <v>1718400</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="60" t="s">
-        <v>176</v>
+        <v>15</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="31">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20">
         <v>3440320</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="H14" s="71" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="31">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20">
         <v>3439680</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="H15" s="72"/>
+      <c r="G15" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="43"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="31">
+        <v>3</v>
+      </c>
+      <c r="E16" s="20">
         <v>2792867</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="H16" s="71" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="31">
+        <v>3</v>
+      </c>
+      <c r="E17" s="20">
         <v>2782626</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="H17" s="71" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="31">
+        <v>3</v>
+      </c>
+      <c r="E18" s="20">
         <v>2788079</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>63</v>
+        <v>20</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="31">
+        <v>3</v>
+      </c>
+      <c r="E19" s="20">
         <v>2786616</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>63</v>
+        <v>20</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="31">
+        <v>3</v>
+      </c>
+      <c r="E20" s="20">
         <v>2789542</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="H20" s="60" t="s">
-        <v>63</v>
+        <v>20</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="31">
+        <v>3</v>
+      </c>
+      <c r="E21" s="20">
         <v>2789808</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="H21" s="60" t="s">
-        <v>63</v>
+        <v>20</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="31">
+        <v>3</v>
+      </c>
+      <c r="E22" s="20">
         <v>2795261</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="H22" s="60" t="s">
-        <v>47</v>
+        <v>20</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="31">
+        <v>6</v>
+      </c>
+      <c r="E23" s="20">
         <v>2221380</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="H23" s="71" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="31">
+        <v>6</v>
+      </c>
+      <c r="E24" s="20">
         <v>2224320</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="H24" s="71" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="31">
+        <v>6</v>
+      </c>
+      <c r="E25" s="20">
         <v>2225685</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="H25" s="71" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="31">
+        <v>6</v>
+      </c>
+      <c r="E26" s="20">
         <v>2112000</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="H26" s="72"/>
+        <v>35</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" s="43"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>219</v>
-      </c>
-      <c r="E27" s="31">
+        <v>200</v>
+      </c>
+      <c r="E27" s="20">
         <v>1054.46</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="H27" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="H27" s="43"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
-      </c>
-      <c r="E28" s="31">
+        <v>200</v>
+      </c>
+      <c r="E28" s="20">
         <v>1015.39705</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="H28" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="H28" s="43"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>219</v>
-      </c>
-      <c r="E29" s="31">
+        <v>200</v>
+      </c>
+      <c r="E29" s="20">
         <v>977.86785999999995</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="H29" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29" s="43"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>219</v>
-      </c>
-      <c r="E30" s="31">
+        <v>200</v>
+      </c>
+      <c r="E30" s="20">
         <v>977.86785999999995</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="H30" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
-      </c>
-      <c r="E31" s="31">
+        <v>200</v>
+      </c>
+      <c r="E31" s="20">
         <v>985.34493999999995</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="H31" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="H31" s="43"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>219</v>
-      </c>
-      <c r="E32" s="31">
+        <v>200</v>
+      </c>
+      <c r="E32" s="20">
         <v>1049.4273499999999</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="H32" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="H32" s="43"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>219</v>
-      </c>
-      <c r="E33" s="31">
+        <v>200</v>
+      </c>
+      <c r="E33" s="20">
         <v>1012.85676</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="H33" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="H33" s="43"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>219</v>
-      </c>
-      <c r="E34" s="31">
+        <v>200</v>
+      </c>
+      <c r="E34" s="20">
         <v>1019.32731</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="H34" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>219</v>
-      </c>
-      <c r="E35" s="31">
+        <v>200</v>
+      </c>
+      <c r="E35" s="20">
         <v>1036.1028100000001</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="H35" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="H35" s="43"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="20">
+        <v>930.99231999999995</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E36" s="31">
-        <v>930.99231999999995</v>
-      </c>
-      <c r="F36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="H36" s="72"/>
+      <c r="H36" s="43"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="F37" s="4"/>
-      <c r="G37" s="58" t="s">
-        <v>54</v>
+      <c r="G37" s="29" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="H38" s="60" t="s">
-        <v>176</v>
+        <v>15</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="H39" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="H39" s="43"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="58" t="s">
-        <v>247</v>
-      </c>
-      <c r="H40" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="H40" s="43"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
-      </c>
-      <c r="G41" s="58" t="s">
-        <v>250</v>
-      </c>
-      <c r="H41" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="H41" s="43"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="F42" t="s">
-        <v>81</v>
-      </c>
-      <c r="G42" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="H42" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="H42" s="43"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="H43" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="H43" s="43"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F44" t="s">
-        <v>81</v>
-      </c>
-      <c r="G44" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="H44" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="H44" s="43"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" s="59" t="s">
-        <v>260</v>
-      </c>
-      <c r="H45" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="H45" s="43"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
-      </c>
-      <c r="G46" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="H46" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="H46" s="43"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F47" t="s">
-        <v>81</v>
-      </c>
-      <c r="G47" s="59" t="s">
-        <v>264</v>
-      </c>
-      <c r="H47" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H47" s="43"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
-      </c>
-      <c r="G48" s="59" t="s">
-        <v>266</v>
-      </c>
-      <c r="H48" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="H48" s="43"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F49" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49" s="59" t="s">
-        <v>268</v>
-      </c>
-      <c r="H49" s="72"/>
+        <v>35</v>
+      </c>
+      <c r="G49" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="H49" s="43"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="H50" s="60" t="s">
-        <v>272</v>
+        <v>12</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="H51" s="60" t="s">
-        <v>276</v>
+        <v>20</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="H52" s="60" t="s">
-        <v>272</v>
+        <v>20</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="H52" s="31" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
-      </c>
-      <c r="G53" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="H53" s="60" t="s">
-        <v>276</v>
+        <v>20</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="H54" s="60" t="s">
-        <v>272</v>
+        <v>12</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="H54" s="31" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D55" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="H55" s="60" t="s">
-        <v>272</v>
+        <v>12</v>
+      </c>
+      <c r="G55" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" s="59" t="s">
-        <v>287</v>
-      </c>
-      <c r="H56" s="60" t="s">
-        <v>272</v>
+        <v>20</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
-      </c>
-      <c r="G57" s="59" t="s">
-        <v>289</v>
-      </c>
-      <c r="H57" s="60" t="s">
-        <v>272</v>
+        <v>20</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H57" s="31" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="F58" t="s">
-        <v>54</v>
-      </c>
-      <c r="G58" s="59" t="s">
-        <v>292</v>
-      </c>
-      <c r="H58" s="72"/>
+        <v>35</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="H58" s="43"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F59" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G59" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="H59" s="60" t="s">
+      <c r="F59" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G59" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="H59" s="31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F60" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F61" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" s="40" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F60" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G60" s="69" t="s">
-        <v>293</v>
-      </c>
-      <c r="H60" s="60" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F61" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G61" s="69" t="s">
-        <v>295</v>
-      </c>
-      <c r="H61" s="60" t="s">
-        <v>294</v>
+      <c r="H61" s="31" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F62" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G62" s="69" t="s">
-        <v>151</v>
-      </c>
-      <c r="H62" s="60" t="s">
-        <v>296</v>
+      <c r="F62" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H62" s="31" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F63" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G63" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="H63" s="60" t="s">
-        <v>296</v>
+      <c r="F63" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="H63" s="31" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F64" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G64" s="69" t="s">
-        <v>149</v>
-      </c>
-      <c r="H64" s="60" t="s">
-        <v>296</v>
+      <c r="F64" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="H64" s="31" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F65" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G65" s="69" t="s">
-        <v>297</v>
-      </c>
-      <c r="H65" s="60" t="s">
-        <v>294</v>
+      <c r="F65" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G65" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="H65" s="31" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F66" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G66" s="69" t="s">
-        <v>298</v>
-      </c>
-      <c r="H66" s="60" t="s">
-        <v>294</v>
+      <c r="F66" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="H66" s="31" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F67" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G67" s="70" t="s">
-        <v>299</v>
-      </c>
-      <c r="H67" s="60" t="s">
-        <v>300</v>
+      <c r="F67" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G67" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="H67" s="31" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F68" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G68" s="69" t="s">
-        <v>301</v>
-      </c>
-      <c r="H68" s="60" t="s">
-        <v>302</v>
+      <c r="F68" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="H68" s="31" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F69" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G69" s="69" t="s">
-        <v>303</v>
-      </c>
-      <c r="H69" s="60" t="s">
-        <v>302</v>
+      <c r="F69" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H69" s="31" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F70" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G70" s="69" t="s">
-        <v>304</v>
-      </c>
-      <c r="H70" s="60" t="s">
-        <v>305</v>
+      <c r="F70" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G70" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="H70" s="31" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F71" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G71" s="69" t="s">
-        <v>156</v>
-      </c>
-      <c r="H71" s="60" t="s">
-        <v>276</v>
+      <c r="F71" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="H71" s="31" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F72" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G72" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="H72" s="60" t="s">
-        <v>276</v>
+      <c r="F72" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G72" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="H72" s="31" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F73" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G73" s="69" t="s">
-        <v>299</v>
+      <c r="F73" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G73" s="40" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F74" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G74" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="H74" s="60" t="s">
-        <v>296</v>
+      <c r="F74" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G74" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="H74" s="31" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F75" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G75" s="69" t="s">
-        <v>301</v>
+      <c r="F75" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" s="40" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F76" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G76" s="69" t="s">
-        <v>303</v>
+      <c r="F76" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G76" s="40" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="77" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F77" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G77" s="69" t="s">
-        <v>304</v>
+      <c r="F77" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G77" s="40" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
